--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55947E0-1133-4F23-B381-DD7F424D4979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B1678-2C3C-4693-8E79-2AC5904813DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C325ECE4-B531-48FE-B843-B2ED87F049F9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>equipId|String</t>
   </si>
@@ -657,9 +657,6 @@
     <t>EquipName_MorningStar</t>
   </si>
   <si>
-    <t>후보</t>
-  </si>
-  <si>
     <t>Equip5001</t>
   </si>
   <si>
@@ -900,42 +897,6 @@
     <t>EquipName_SciFiRocketLauncher</t>
   </si>
   <si>
-    <t>Equip6403</t>
-  </si>
-  <si>
-    <t>SciFiRifle3</t>
-  </si>
-  <si>
-    <t>Shot_SciFiRifle3</t>
-  </si>
-  <si>
-    <t>EquipName_SciFiRifle3</t>
-  </si>
-  <si>
-    <t>Equip6404</t>
-  </si>
-  <si>
-    <t>RayRevolver</t>
-  </si>
-  <si>
-    <t>Shot_RayRevolver</t>
-  </si>
-  <si>
-    <t>EquipName_RayRevolver</t>
-  </si>
-  <si>
-    <t>Equip6405</t>
-  </si>
-  <si>
-    <t>SciFiPlasmaRifle</t>
-  </si>
-  <si>
-    <t>Shot_SciFiPlasmaRifle</t>
-  </si>
-  <si>
-    <t>EquipName_SciFiPlasmaRifle</t>
-  </si>
-  <si>
     <t>Equip7001</t>
   </si>
   <si>
@@ -1056,51 +1017,6 @@
     <t>EquipName_SpikeShield</t>
   </si>
   <si>
-    <t>Equip7403</t>
-  </si>
-  <si>
-    <t>ArsenalBigShield</t>
-  </si>
-  <si>
-    <t>Shot_ArsenalBigShield</t>
-  </si>
-  <si>
-    <t>EquipName_ArsenalBigShield</t>
-  </si>
-  <si>
-    <t>Equip7404</t>
-  </si>
-  <si>
-    <t>OrcShield</t>
-  </si>
-  <si>
-    <t>Shot_OrcShield</t>
-  </si>
-  <si>
-    <t>EquipName_OrcShield</t>
-  </si>
-  <si>
-    <t>Equip7405</t>
-  </si>
-  <si>
-    <t>ChainShield</t>
-  </si>
-  <si>
-    <t>Shot_ChainShield</t>
-  </si>
-  <si>
-    <t>EquipName_ChainShield</t>
-  </si>
-  <si>
-    <t>VikingShield</t>
-  </si>
-  <si>
-    <t>Shot_VikingShield</t>
-  </si>
-  <si>
-    <t>EquipName_VikingShield</t>
-  </si>
-  <si>
     <t>Equip8001</t>
   </si>
   <si>
@@ -1219,51 +1135,6 @@
   </si>
   <si>
     <t>EquipName_DarkNpcSword</t>
-  </si>
-  <si>
-    <t>Equip8403</t>
-  </si>
-  <si>
-    <t>MorfusSword</t>
-  </si>
-  <si>
-    <t>Shot_MorfusSword</t>
-  </si>
-  <si>
-    <t>EquipName_MorfusSword</t>
-  </si>
-  <si>
-    <t>Equip8404</t>
-  </si>
-  <si>
-    <t>JimHdSword2</t>
-  </si>
-  <si>
-    <t>Shot_JimHdSword2</t>
-  </si>
-  <si>
-    <t>EquipName_JimHdSword2</t>
-  </si>
-  <si>
-    <t>Equip8405</t>
-  </si>
-  <si>
-    <t>ArsenalBigSword</t>
-  </si>
-  <si>
-    <t>Shot_ArsenalBigSword</t>
-  </si>
-  <si>
-    <t>EquipName_ArsenalBigSword</t>
-  </si>
-  <si>
-    <t>HeavyDarkSword</t>
-  </si>
-  <si>
-    <t>Shot_HeavyDarkSword</t>
-  </si>
-  <si>
-    <t>EquipName_HeavyDarkSword</t>
   </si>
 </sst>
 </file>
@@ -1627,11 +1498,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F94C18-DD94-4031-A6DE-6AA1145CB6AF}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2814,7 +2683,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -2823,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" t="s">
         <v>209</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>210</v>
-      </c>
-      <c r="F52" t="s">
-        <v>211</v>
       </c>
       <c r="G52">
         <v>240</v>
@@ -2837,7 +2706,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -2846,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" t="s">
         <v>213</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>214</v>
-      </c>
-      <c r="F53" t="s">
-        <v>215</v>
       </c>
       <c r="G53">
         <v>192</v>
@@ -2860,7 +2729,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -2869,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" t="s">
         <v>217</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>218</v>
-      </c>
-      <c r="F54" t="s">
-        <v>219</v>
       </c>
       <c r="G54">
         <v>288</v>
@@ -2883,7 +2752,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -2892,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
         <v>221</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>222</v>
-      </c>
-      <c r="F55" t="s">
-        <v>223</v>
       </c>
       <c r="G55">
         <v>230.4</v>
@@ -2906,7 +2775,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -2915,13 +2784,13 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" t="s">
         <v>225</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>226</v>
-      </c>
-      <c r="F56" t="s">
-        <v>227</v>
       </c>
       <c r="G56">
         <v>60</v>
@@ -2929,7 +2798,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -2938,13 +2807,13 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" t="s">
         <v>229</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>230</v>
-      </c>
-      <c r="F57" t="s">
-        <v>231</v>
       </c>
       <c r="G57">
         <v>48</v>
@@ -2952,7 +2821,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -2961,13 +2830,13 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
         <v>233</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>234</v>
-      </c>
-      <c r="F58" t="s">
-        <v>235</v>
       </c>
       <c r="G58">
         <v>20</v>
@@ -2975,7 +2844,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -2984,13 +2853,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" t="s">
         <v>237</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>238</v>
-      </c>
-      <c r="F59" t="s">
-        <v>239</v>
       </c>
       <c r="G59">
         <v>16</v>
@@ -2998,7 +2867,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -3007,13 +2876,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" t="s">
         <v>241</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>242</v>
-      </c>
-      <c r="F60" t="s">
-        <v>243</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -3021,7 +2890,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -3030,13 +2899,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" t="s">
         <v>245</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>246</v>
-      </c>
-      <c r="F61" t="s">
-        <v>247</v>
       </c>
       <c r="G61">
         <v>0.8</v>
@@ -3044,7 +2913,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3053,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" t="s">
         <v>249</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>250</v>
-      </c>
-      <c r="F62" t="s">
-        <v>251</v>
       </c>
       <c r="G62">
         <v>240</v>
@@ -3067,7 +2936,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3076,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" t="s">
         <v>253</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>254</v>
-      </c>
-      <c r="F63" t="s">
-        <v>255</v>
       </c>
       <c r="G63">
         <v>192</v>
@@ -3090,7 +2959,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -3099,13 +2968,13 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" t="s">
         <v>257</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>258</v>
-      </c>
-      <c r="F64" t="s">
-        <v>259</v>
       </c>
       <c r="G64">
         <v>288</v>
@@ -3113,7 +2982,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3122,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" t="s">
         <v>261</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>262</v>
-      </c>
-      <c r="F65" t="s">
-        <v>263</v>
       </c>
       <c r="G65">
         <v>230.4</v>
@@ -3136,7 +3005,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -3145,13 +3014,13 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
+        <v>264</v>
+      </c>
+      <c r="E66" t="s">
         <v>265</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>266</v>
-      </c>
-      <c r="F66" t="s">
-        <v>267</v>
       </c>
       <c r="G66">
         <v>60</v>
@@ -3159,7 +3028,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3168,13 +3037,13 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67" t="s">
         <v>269</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>270</v>
-      </c>
-      <c r="F67" t="s">
-        <v>271</v>
       </c>
       <c r="G67">
         <v>48</v>
@@ -3182,7 +3051,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3191,13 +3060,13 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
         <v>273</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>274</v>
-      </c>
-      <c r="F68" t="s">
-        <v>275</v>
       </c>
       <c r="G68">
         <v>20</v>
@@ -3205,7 +3074,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3214,13 +3083,13 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
         <v>277</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>278</v>
-      </c>
-      <c r="F69" t="s">
-        <v>279</v>
       </c>
       <c r="G69">
         <v>16</v>
@@ -3228,7 +3097,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -3237,13 +3106,13 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" t="s">
         <v>281</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>282</v>
-      </c>
-      <c r="F70" t="s">
-        <v>283</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -3251,7 +3120,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -3260,13 +3129,13 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" t="s">
         <v>285</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>286</v>
-      </c>
-      <c r="F71" t="s">
-        <v>287</v>
       </c>
       <c r="G71">
         <v>0.8</v>
@@ -3274,7 +3143,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B72">
         <v>7</v>
@@ -3283,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F72" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G72">
         <v>240</v>
@@ -3297,7 +3166,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -3306,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G73">
         <v>192</v>
@@ -3320,7 +3189,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -3329,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F74" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G74">
         <v>288</v>
@@ -3343,7 +3212,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B75">
         <v>7</v>
@@ -3352,13 +3221,13 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E75" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F75" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G75">
         <v>230.4</v>
@@ -3366,7 +3235,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -3375,13 +3244,13 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F76" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G76">
         <v>60</v>
@@ -3389,7 +3258,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -3398,13 +3267,13 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G77">
         <v>48</v>
@@ -3412,7 +3281,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B78">
         <v>7</v>
@@ -3421,13 +3290,13 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E78" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F78" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G78">
         <v>20</v>
@@ -3435,7 +3304,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -3444,13 +3313,13 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E79" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F79" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G79">
         <v>16</v>
@@ -3458,7 +3327,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -3467,13 +3336,13 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E80" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F80" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3481,7 +3350,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -3490,13 +3359,13 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E81" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G81">
         <v>0.8</v>
@@ -3504,7 +3373,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -3513,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="E82" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="F82" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="G82">
         <v>240</v>
@@ -3527,7 +3396,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -3536,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="E83" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="G83">
         <v>192</v>
@@ -3550,7 +3419,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -3559,13 +3428,13 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E84" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="F84" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="G84">
         <v>288</v>
@@ -3573,7 +3442,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -3582,13 +3451,13 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="E85" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="F85" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="G85">
         <v>230.4</v>
@@ -3596,7 +3465,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -3605,13 +3474,13 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="E86" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F86" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G86">
         <v>60</v>
@@ -3619,7 +3488,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -3628,13 +3497,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="E87" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="G87">
         <v>48</v>
@@ -3642,7 +3511,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -3651,13 +3520,13 @@
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="E88" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="G88">
         <v>20</v>
@@ -3665,7 +3534,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -3674,13 +3543,13 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F89" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="G89">
         <v>16</v>
@@ -3688,7 +3557,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -3697,13 +3566,13 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E90" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F90" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3711,7 +3580,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -3720,867 +3589,16 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="E91" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="F91" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="G91">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>264</v>
-      </c>
-      <c r="B92">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>28</v>
-      </c>
-      <c r="E92" t="s">
-        <v>265</v>
-      </c>
-      <c r="F92" t="s">
-        <v>266</v>
-      </c>
-      <c r="G92" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>268</v>
-      </c>
-      <c r="B93">
-        <v>6</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>25</v>
-      </c>
-      <c r="E93" t="s">
-        <v>269</v>
-      </c>
-      <c r="F93" t="s">
-        <v>270</v>
-      </c>
-      <c r="G93" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>272</v>
-      </c>
-      <c r="B94">
-        <v>6</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>54</v>
-      </c>
-      <c r="E94" t="s">
-        <v>273</v>
-      </c>
-      <c r="F94" t="s">
-        <v>274</v>
-      </c>
-      <c r="G94" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>276</v>
-      </c>
-      <c r="B95">
-        <v>6</v>
-      </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>48</v>
-      </c>
-      <c r="E95" t="s">
-        <v>277</v>
-      </c>
-      <c r="F95" t="s">
-        <v>278</v>
-      </c>
-      <c r="G95" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>280</v>
-      </c>
-      <c r="B96">
-        <v>6</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>120</v>
-      </c>
-      <c r="E96" t="s">
-        <v>281</v>
-      </c>
-      <c r="F96" t="s">
-        <v>282</v>
-      </c>
-      <c r="G96" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>284</v>
-      </c>
-      <c r="B97">
-        <v>6</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-      <c r="D97">
-        <v>106</v>
-      </c>
-      <c r="E97" t="s">
-        <v>285</v>
-      </c>
-      <c r="F97" t="s">
-        <v>286</v>
-      </c>
-      <c r="G97" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>288</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>154</v>
-      </c>
-      <c r="E98" t="s">
-        <v>289</v>
-      </c>
-      <c r="F98" t="s">
-        <v>290</v>
-      </c>
-      <c r="G98" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>292</v>
-      </c>
-      <c r="B99">
-        <v>6</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99">
-        <v>141</v>
-      </c>
-      <c r="E99" t="s">
-        <v>293</v>
-      </c>
-      <c r="F99" t="s">
-        <v>294</v>
-      </c>
-      <c r="G99" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>296</v>
-      </c>
-      <c r="B100">
-        <v>6</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-      <c r="D100">
-        <v>202</v>
-      </c>
-      <c r="E100" t="s">
-        <v>297</v>
-      </c>
-      <c r="F100" t="s">
-        <v>298</v>
-      </c>
-      <c r="G100" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>300</v>
-      </c>
-      <c r="B101">
-        <v>7</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>301</v>
-      </c>
-      <c r="F101" t="s">
-        <v>302</v>
-      </c>
-      <c r="G101" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>304</v>
-      </c>
-      <c r="B102">
-        <v>7</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>11</v>
-      </c>
-      <c r="E102" t="s">
-        <v>305</v>
-      </c>
-      <c r="F102" t="s">
-        <v>306</v>
-      </c>
-      <c r="G102" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>308</v>
-      </c>
-      <c r="B103">
-        <v>7</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>17</v>
-      </c>
-      <c r="E103" t="s">
-        <v>309</v>
-      </c>
-      <c r="F103" t="s">
-        <v>310</v>
-      </c>
-      <c r="G103" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>312</v>
-      </c>
-      <c r="B104">
-        <v>7</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>15</v>
-      </c>
-      <c r="E104" t="s">
-        <v>313</v>
-      </c>
-      <c r="F104" t="s">
-        <v>314</v>
-      </c>
-      <c r="G104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>316</v>
-      </c>
-      <c r="B105">
-        <v>7</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>28</v>
-      </c>
-      <c r="E105" t="s">
-        <v>317</v>
-      </c>
-      <c r="F105" t="s">
-        <v>318</v>
-      </c>
-      <c r="G105" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>320</v>
-      </c>
-      <c r="B106">
-        <v>7</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
-        <v>25</v>
-      </c>
-      <c r="E106" t="s">
-        <v>321</v>
-      </c>
-      <c r="F106" t="s">
-        <v>322</v>
-      </c>
-      <c r="G106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107">
-        <v>7</v>
-      </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107">
-        <v>55</v>
-      </c>
-      <c r="E107" t="s">
-        <v>325</v>
-      </c>
-      <c r="F107" t="s">
-        <v>326</v>
-      </c>
-      <c r="G107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>328</v>
-      </c>
-      <c r="B108">
-        <v>7</v>
-      </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108">
-        <v>49</v>
-      </c>
-      <c r="E108" t="s">
-        <v>329</v>
-      </c>
-      <c r="F108" t="s">
-        <v>330</v>
-      </c>
-      <c r="G108" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>332</v>
-      </c>
-      <c r="B109">
-        <v>7</v>
-      </c>
-      <c r="C109">
-        <v>4</v>
-      </c>
-      <c r="D109">
-        <v>118</v>
-      </c>
-      <c r="E109" t="s">
-        <v>333</v>
-      </c>
-      <c r="F109" t="s">
-        <v>334</v>
-      </c>
-      <c r="G109" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>336</v>
-      </c>
-      <c r="B110">
-        <v>7</v>
-      </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
-      <c r="D110">
-        <v>107</v>
-      </c>
-      <c r="E110" t="s">
-        <v>337</v>
-      </c>
-      <c r="F110" t="s">
-        <v>338</v>
-      </c>
-      <c r="G110" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>340</v>
-      </c>
-      <c r="B111">
-        <v>7</v>
-      </c>
-      <c r="C111">
-        <v>4</v>
-      </c>
-      <c r="D111">
-        <v>157</v>
-      </c>
-      <c r="E111" t="s">
-        <v>341</v>
-      </c>
-      <c r="F111" t="s">
-        <v>342</v>
-      </c>
-      <c r="G111" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>344</v>
-      </c>
-      <c r="B112">
-        <v>7</v>
-      </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112">
-        <v>134</v>
-      </c>
-      <c r="E112" t="s">
-        <v>345</v>
-      </c>
-      <c r="F112" t="s">
-        <v>346</v>
-      </c>
-      <c r="G112" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>348</v>
-      </c>
-      <c r="B113">
-        <v>7</v>
-      </c>
-      <c r="C113">
-        <v>4</v>
-      </c>
-      <c r="D113">
-        <v>198</v>
-      </c>
-      <c r="E113" t="s">
-        <v>349</v>
-      </c>
-      <c r="F113" t="s">
-        <v>350</v>
-      </c>
-      <c r="G113" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114">
-        <v>7</v>
-      </c>
-      <c r="C114">
-        <v>-1</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>352</v>
-      </c>
-      <c r="F114" t="s">
-        <v>353</v>
-      </c>
-      <c r="G114" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>355</v>
-      </c>
-      <c r="B115">
-        <v>8</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>356</v>
-      </c>
-      <c r="F115" t="s">
-        <v>357</v>
-      </c>
-      <c r="G115" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>359</v>
-      </c>
-      <c r="B116">
-        <v>8</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>11</v>
-      </c>
-      <c r="E116" t="s">
-        <v>360</v>
-      </c>
-      <c r="F116" t="s">
-        <v>361</v>
-      </c>
-      <c r="G116" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>363</v>
-      </c>
-      <c r="B117">
-        <v>8</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>17</v>
-      </c>
-      <c r="E117" t="s">
-        <v>364</v>
-      </c>
-      <c r="F117" t="s">
-        <v>365</v>
-      </c>
-      <c r="G117" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>367</v>
-      </c>
-      <c r="B118">
-        <v>8</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>16</v>
-      </c>
-      <c r="E118" t="s">
-        <v>368</v>
-      </c>
-      <c r="F118" t="s">
-        <v>369</v>
-      </c>
-      <c r="G118" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>371</v>
-      </c>
-      <c r="B119">
-        <v>8</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
-        <v>28</v>
-      </c>
-      <c r="E119" t="s">
-        <v>372</v>
-      </c>
-      <c r="F119" t="s">
-        <v>373</v>
-      </c>
-      <c r="G119" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>375</v>
-      </c>
-      <c r="B120">
-        <v>8</v>
-      </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120">
-        <v>26</v>
-      </c>
-      <c r="E120" t="s">
-        <v>376</v>
-      </c>
-      <c r="F120" t="s">
-        <v>377</v>
-      </c>
-      <c r="G120" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>379</v>
-      </c>
-      <c r="B121">
-        <v>8</v>
-      </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
-      <c r="D121">
-        <v>56</v>
-      </c>
-      <c r="E121" t="s">
-        <v>380</v>
-      </c>
-      <c r="F121" t="s">
-        <v>381</v>
-      </c>
-      <c r="G121" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>383</v>
-      </c>
-      <c r="B122">
-        <v>8</v>
-      </c>
-      <c r="C122">
-        <v>3</v>
-      </c>
-      <c r="D122">
-        <v>50</v>
-      </c>
-      <c r="E122" t="s">
-        <v>384</v>
-      </c>
-      <c r="F122" t="s">
-        <v>385</v>
-      </c>
-      <c r="G122" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>387</v>
-      </c>
-      <c r="B123">
-        <v>8</v>
-      </c>
-      <c r="C123">
-        <v>4</v>
-      </c>
-      <c r="D123">
-        <v>121</v>
-      </c>
-      <c r="E123" t="s">
-        <v>388</v>
-      </c>
-      <c r="F123" t="s">
-        <v>389</v>
-      </c>
-      <c r="G123" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>391</v>
-      </c>
-      <c r="B124">
-        <v>8</v>
-      </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-      <c r="D124">
-        <v>105</v>
-      </c>
-      <c r="E124" t="s">
-        <v>392</v>
-      </c>
-      <c r="F124" t="s">
-        <v>393</v>
-      </c>
-      <c r="G124" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>395</v>
-      </c>
-      <c r="B125">
-        <v>8</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="D125">
-        <v>156</v>
-      </c>
-      <c r="E125" t="s">
-        <v>396</v>
-      </c>
-      <c r="F125" t="s">
-        <v>397</v>
-      </c>
-      <c r="G125" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>399</v>
-      </c>
-      <c r="B126">
-        <v>8</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>138</v>
-      </c>
-      <c r="E126" t="s">
-        <v>400</v>
-      </c>
-      <c r="F126" t="s">
-        <v>401</v>
-      </c>
-      <c r="G126" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>403</v>
-      </c>
-      <c r="B127">
-        <v>8</v>
-      </c>
-      <c r="C127">
-        <v>4</v>
-      </c>
-      <c r="D127">
-        <v>205</v>
-      </c>
-      <c r="E127" t="s">
-        <v>404</v>
-      </c>
-      <c r="F127" t="s">
-        <v>405</v>
-      </c>
-      <c r="G127" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>207</v>
-      </c>
-      <c r="B128">
-        <v>8</v>
-      </c>
-      <c r="C128">
-        <v>-1</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>407</v>
-      </c>
-      <c r="F128" t="s">
-        <v>408</v>
-      </c>
-      <c r="G128" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A4E8D8-47A5-4930-B5FB-87BDEA52C1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9A7C3-EC8F-4329-9DC4-3875E528E315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>equipId|String</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Equip060101</t>
+  </si>
+  <si>
+    <t>equipGachaWeight|Float</t>
+  </si>
+  <si>
+    <t>Equip010001</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +491,7 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +513,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -530,16 +539,19 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -553,8 +565,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -562,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -576,8 +591,11 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -585,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>400</v>
@@ -599,8 +617,11 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -608,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -622,8 +643,11 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -631,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>600</v>
@@ -645,8 +669,11 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -654,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>700</v>
@@ -668,8 +695,11 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -691,8 +721,11 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -700,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>201</v>
@@ -714,8 +747,11 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -723,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>301</v>
@@ -737,8 +773,11 @@
       <c r="G11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -746,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>401</v>
@@ -760,8 +799,11 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -769,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>501</v>
@@ -783,8 +825,11 @@
       <c r="G13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -792,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>601</v>
@@ -806,8 +851,11 @@
       <c r="G14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -815,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>701</v>
@@ -828,6 +876,9 @@
       </c>
       <c r="G15" t="s">
         <v>19</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9A7C3-EC8F-4329-9DC4-3875E528E315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50362172-17B5-47F0-B523-A80E85E3AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>equipId|String</t>
   </si>
@@ -118,6 +118,77 @@
   </si>
   <si>
     <t>Equip010001</t>
+  </si>
+  <si>
+    <t>Equip002001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip012001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip022001</t>
+  </si>
+  <si>
+    <t>Equip032001</t>
+  </si>
+  <si>
+    <t>Equip042001</t>
+  </si>
+  <si>
+    <t>Equip052001</t>
+  </si>
+  <si>
+    <t>Equip062001</t>
+  </si>
+  <si>
+    <t>JimHdBow7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot_JimHdBow7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipName_PickAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipName_JimHdBow7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option3|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option4|Int</t>
+  </si>
+  <si>
+    <t>option5|Int</t>
+  </si>
+  <si>
+    <t>option6|Int</t>
+  </si>
+  <si>
+    <t>skillId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option3Value|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillActive|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon0001</t>
+  </si>
+  <si>
+    <t>Weapon0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,17 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +590,38 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -542,8 +646,38 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>0.1</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>0.15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -568,8 +702,38 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>0.1</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>0.15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -594,8 +758,38 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>0.1</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>0.15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -620,8 +814,38 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>0.1</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>0.15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -646,8 +870,38 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>0.15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -672,8 +926,38 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>0.1</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -698,8 +982,38 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>0.1</v>
+      </c>
+      <c r="O8">
+        <v>15</v>
+      </c>
+      <c r="P8">
+        <v>0.15</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -724,8 +1038,32 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>1E-3</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>1E-3</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -750,8 +1088,32 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>1E-3</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>1E-3</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -776,8 +1138,32 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>1E-3</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>19</v>
+      </c>
+      <c r="N11">
+        <v>1E-3</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -802,8 +1188,32 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>1E-3</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>1E-3</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -828,8 +1238,32 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>1E-3</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <v>1E-3</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -854,8 +1288,32 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>1E-3</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>1E-3</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -875,10 +1333,426 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>1E-3</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>1E-3</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>1E-3</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>1E-3</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>0.03</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>1E-3</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>400</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>1E-3</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>1E-3</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>0.03</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>600</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>1E-3</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>0.03</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>700</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>1E-3</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>0.03</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50362172-17B5-47F0-B523-A80E85E3AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A220A3-D8E7-47F7-A87D-18A8CCB24CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
@@ -1368,7 +1368,7 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1536,7 +1536,7 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1592,7 +1592,7 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1704,7 +1704,7 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1758,5 +1758,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A220A3-D8E7-47F7-A87D-18A8CCB24CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9591E2EC-875F-4A6D-841E-6D8DCC460DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>equipId|String</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>Weapon0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option4Value|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option5Value|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option6Value|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,19 +612,19 @@
         <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
         <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
         <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s">
         <v>43</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9591E2EC-875F-4A6D-841E-6D8DCC460DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE11381-5F29-472F-A732-2954B1AAE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t>equipId|String</t>
   </si>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>option6Value|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,20 +568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,52 +594,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -644,52 +653,55 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.1</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>15</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -700,52 +712,55 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>13</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>15</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.15</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>46</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -756,52 +771,55 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>300</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.5</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>13</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.1</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>15</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.15</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>46</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -812,52 +830,55 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>400</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="H5" t="s">
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>13</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.1</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>15</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.15</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>46</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -868,52 +889,55 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>500</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.5</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>13</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.1</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>15</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.15</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>46</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -924,52 +948,55 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>600</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>13</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.1</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>15</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.15</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>46</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -980,52 +1007,55 @@
         <v>6</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>700</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>11</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.5</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>13</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.1</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>15</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.15</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>46</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1036,46 +1066,49 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>101</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>19</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>17</v>
       </c>
-      <c r="J9">
-        <v>1E-3</v>
-      </c>
       <c r="K9">
+        <v>1E-3</v>
+      </c>
+      <c r="L9">
         <v>18</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.1</v>
       </c>
-      <c r="M9">
-        <v>19</v>
-      </c>
       <c r="N9">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O9">
+        <v>1E-3</v>
+      </c>
+      <c r="P9">
         <v>20</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1086,46 +1119,49 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>201</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="H10" t="s">
+        <v>19</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>17</v>
       </c>
-      <c r="J10">
-        <v>1E-3</v>
-      </c>
       <c r="K10">
+        <v>1E-3</v>
+      </c>
+      <c r="L10">
         <v>18</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.1</v>
       </c>
-      <c r="M10">
-        <v>19</v>
-      </c>
       <c r="N10">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O10">
+        <v>1E-3</v>
+      </c>
+      <c r="P10">
         <v>20</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1136,46 +1172,49 @@
         <v>2</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>301</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="H11" t="s">
+        <v>19</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>17</v>
       </c>
-      <c r="J11">
-        <v>1E-3</v>
-      </c>
       <c r="K11">
+        <v>1E-3</v>
+      </c>
+      <c r="L11">
         <v>18</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.1</v>
       </c>
-      <c r="M11">
-        <v>19</v>
-      </c>
       <c r="N11">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O11">
+        <v>1E-3</v>
+      </c>
+      <c r="P11">
         <v>20</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1186,46 +1225,49 @@
         <v>3</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>401</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>19</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>17</v>
       </c>
-      <c r="J12">
-        <v>1E-3</v>
-      </c>
       <c r="K12">
+        <v>1E-3</v>
+      </c>
+      <c r="L12">
         <v>18</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.1</v>
       </c>
-      <c r="M12">
-        <v>19</v>
-      </c>
       <c r="N12">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O12">
+        <v>1E-3</v>
+      </c>
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1236,46 +1278,49 @@
         <v>4</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>501</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="H13" t="s">
+        <v>19</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>17</v>
       </c>
-      <c r="J13">
-        <v>1E-3</v>
-      </c>
       <c r="K13">
+        <v>1E-3</v>
+      </c>
+      <c r="L13">
         <v>18</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.1</v>
       </c>
-      <c r="M13">
-        <v>19</v>
-      </c>
       <c r="N13">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O13">
+        <v>1E-3</v>
+      </c>
+      <c r="P13">
         <v>20</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1286,46 +1331,49 @@
         <v>5</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>601</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" t="s">
+        <v>19</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>17</v>
       </c>
-      <c r="J14">
-        <v>1E-3</v>
-      </c>
       <c r="K14">
+        <v>1E-3</v>
+      </c>
+      <c r="L14">
         <v>18</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.1</v>
       </c>
-      <c r="M14">
-        <v>19</v>
-      </c>
       <c r="N14">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O14">
+        <v>1E-3</v>
+      </c>
+      <c r="P14">
         <v>20</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1336,46 +1384,49 @@
         <v>6</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>701</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>37</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>17</v>
       </c>
-      <c r="J15">
-        <v>1E-3</v>
-      </c>
       <c r="K15">
+        <v>1E-3</v>
+      </c>
+      <c r="L15">
         <v>18</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.1</v>
       </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
       <c r="N15">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O15">
+        <v>1E-3</v>
+      </c>
+      <c r="P15">
         <v>20</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1386,52 +1437,55 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>38</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>11</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.5</v>
       </c>
-      <c r="M16">
-        <v>19</v>
-      </c>
       <c r="N16">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O16">
+        <v>1E-3</v>
+      </c>
+      <c r="P16">
         <v>20</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.03</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>47</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1442,52 +1496,55 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>200</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>38</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>11</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.5</v>
       </c>
-      <c r="M17">
-        <v>19</v>
-      </c>
       <c r="N17">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O17">
+        <v>1E-3</v>
+      </c>
+      <c r="P17">
         <v>20</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.03</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>47</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1498,52 +1555,55 @@
         <v>2</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>300</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>38</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
       <c r="I18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>11</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.5</v>
       </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
       <c r="N18">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O18">
+        <v>1E-3</v>
+      </c>
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.03</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>47</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1554,52 +1614,55 @@
         <v>3</v>
       </c>
       <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>400</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>38</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
       <c r="I19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>11</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.5</v>
       </c>
-      <c r="M19">
-        <v>19</v>
-      </c>
       <c r="N19">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O19">
+        <v>1E-3</v>
+      </c>
+      <c r="P19">
         <v>20</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.03</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>47</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1610,52 +1673,55 @@
         <v>4</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>500</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>11</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.5</v>
       </c>
-      <c r="M20">
-        <v>19</v>
-      </c>
       <c r="N20">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O20">
+        <v>1E-3</v>
+      </c>
+      <c r="P20">
         <v>20</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.03</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>47</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1666,52 +1732,55 @@
         <v>5</v>
       </c>
       <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>600</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>38</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.5</v>
       </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
       <c r="N21">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O21">
+        <v>1E-3</v>
+      </c>
+      <c r="P21">
         <v>20</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.03</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>47</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1722,48 +1791,51 @@
         <v>6</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>700</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>38</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>11</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.5</v>
       </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
       <c r="N22">
-        <v>1E-3</v>
+        <v>19</v>
       </c>
       <c r="O22">
+        <v>1E-3</v>
+      </c>
+      <c r="P22">
         <v>20</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.03</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>47</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>4</v>
       </c>
     </row>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE57EAF9-FCE0-4DC1-ACD6-03C01DEF1A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D921BCB5-06AC-4507-83D0-C1920640A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
@@ -2082,7 +2082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:S379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12907,13 +12909,13 @@
         <v>102</v>
       </c>
       <c r="F352" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G352" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H352" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I352">
         <v>1</v>
@@ -12936,13 +12938,13 @@
         <v>202</v>
       </c>
       <c r="F353" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G353" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H353" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I353">
         <v>1</v>
@@ -12965,13 +12967,13 @@
         <v>302</v>
       </c>
       <c r="F354" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G354" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H354" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I354">
         <v>1</v>
@@ -12994,13 +12996,13 @@
         <v>402</v>
       </c>
       <c r="F355" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G355" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H355" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I355">
         <v>1</v>
@@ -13023,13 +13025,13 @@
         <v>502</v>
       </c>
       <c r="F356" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G356" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H356" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I356">
         <v>1</v>
@@ -13052,13 +13054,13 @@
         <v>602</v>
       </c>
       <c r="F357" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G357" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H357" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -13081,13 +13083,13 @@
         <v>702</v>
       </c>
       <c r="F358" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G358" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H358" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="I358">
         <v>1</v>
@@ -13110,13 +13112,13 @@
         <v>150</v>
       </c>
       <c r="F359" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G359" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H359" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I359">
         <v>1</v>
@@ -13139,13 +13141,13 @@
         <v>300</v>
       </c>
       <c r="F360" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G360" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H360" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I360">
         <v>1</v>
@@ -13168,13 +13170,13 @@
         <v>450</v>
       </c>
       <c r="F361" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G361" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H361" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I361">
         <v>1</v>
@@ -13197,13 +13199,13 @@
         <v>600</v>
       </c>
       <c r="F362" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G362" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H362" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I362">
         <v>1</v>
@@ -13226,13 +13228,13 @@
         <v>750</v>
       </c>
       <c r="F363" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G363" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H363" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I363">
         <v>1</v>
@@ -13255,13 +13257,13 @@
         <v>900</v>
       </c>
       <c r="F364" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G364" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H364" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -13284,13 +13286,13 @@
         <v>1050</v>
       </c>
       <c r="F365" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G365" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H365" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I365">
         <v>1</v>
@@ -13313,13 +13315,13 @@
         <v>151</v>
       </c>
       <c r="F366" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G366" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H366" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I366">
         <v>1</v>
@@ -13342,13 +13344,13 @@
         <v>301</v>
       </c>
       <c r="F367" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G367" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H367" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I367">
         <v>1</v>
@@ -13371,13 +13373,13 @@
         <v>451</v>
       </c>
       <c r="F368" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G368" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H368" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I368">
         <v>1</v>
@@ -13400,13 +13402,13 @@
         <v>601</v>
       </c>
       <c r="F369" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G369" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H369" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I369">
         <v>1</v>
@@ -13429,13 +13431,13 @@
         <v>751</v>
       </c>
       <c r="F370" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G370" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H370" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I370">
         <v>1</v>
@@ -13458,13 +13460,13 @@
         <v>901</v>
       </c>
       <c r="F371" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G371" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H371" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I371">
         <v>1</v>
@@ -13487,13 +13489,13 @@
         <v>1051</v>
       </c>
       <c r="F372" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G372" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H372" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I372">
         <v>1</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D921BCB5-06AC-4507-83D0-C1920640A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7399D657-D119-42F2-8263-6A3471997FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
+    <sheet name="EquipCompositeTable" sheetId="2" r:id="rId2"/>
+    <sheet name="EquipGradeTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="570">
   <si>
     <t>equipId|String</t>
   </si>
@@ -1717,6 +1719,33 @@
   </si>
   <si>
     <t>Equip068201</t>
+  </si>
+  <si>
+    <t>grade|int</t>
+  </si>
+  <si>
+    <t>compositeLevelMax|Int</t>
+  </si>
+  <si>
+    <t>compositeLevel|Int</t>
+  </si>
+  <si>
+    <t>compositeDone|Bool</t>
+  </si>
+  <si>
+    <t>last4digitSame|Bool</t>
+  </si>
+  <si>
+    <t>materialGrade|Int</t>
+  </si>
+  <si>
+    <t>materialRarity|Int</t>
+  </si>
+  <si>
+    <t>anyPartsPossible|Bool</t>
+  </si>
+  <si>
+    <t>count|Int</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:S379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13709,4 +13738,1788 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512A4D91-0EC8-47A0-B216-66CBBABEAC7F}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F30F46-2488-4B4B-B248-E9A0A46E3BAB}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7399D657-D119-42F2-8263-6A3471997FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A8C000-6C7B-47B6-9D75-B0751D0E3BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="572">
   <si>
     <t>equipId|String</t>
   </si>
@@ -1746,6 +1746,12 @@
   </si>
   <si>
     <t>count|Int</t>
+  </si>
+  <si>
+    <t>group|String</t>
+  </si>
+  <si>
+    <t>materialType|int</t>
   </si>
 </sst>
 </file>
@@ -2109,11 +2115,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
-  <dimension ref="A1:S379"/>
+  <dimension ref="A1:T379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2124,7 +2128,7 @@
     <col min="18" max="18" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2182,8 +2186,11 @@
       <c r="S1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2241,8 +2248,11 @@
       <c r="S2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2300,8 +2310,11 @@
       <c r="S3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2359,8 +2372,11 @@
       <c r="S4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2418,8 +2434,11 @@
       <c r="S5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2477,8 +2496,11 @@
       <c r="S6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2536,8 +2558,11 @@
       <c r="S7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2595,8 +2620,11 @@
       <c r="S8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2624,8 +2652,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2653,8 +2684,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2682,8 +2716,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2711,8 +2748,11 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2740,8 +2780,11 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2769,8 +2812,11 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2798,8 +2844,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2827,8 +2876,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2856,8 +2908,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2885,8 +2940,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2914,8 +2972,11 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2943,8 +3004,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2972,8 +3036,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3001,8 +3068,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3054,8 +3124,11 @@
       <c r="Q23">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3107,8 +3180,11 @@
       <c r="Q24">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -3160,8 +3236,11 @@
       <c r="Q25">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -3213,8 +3292,11 @@
       <c r="Q26">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3266,8 +3348,11 @@
       <c r="Q27">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3319,8 +3404,11 @@
       <c r="Q28">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3372,8 +3460,11 @@
       <c r="Q29">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3401,8 +3492,11 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3430,8 +3524,11 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -3459,8 +3556,11 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3488,8 +3588,11 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -3517,8 +3620,11 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -3546,8 +3652,11 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3575,8 +3684,11 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -3604,8 +3716,11 @@
       <c r="I37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -3633,8 +3748,11 @@
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -3662,8 +3780,11 @@
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3691,8 +3812,11 @@
       <c r="I40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -3720,8 +3844,11 @@
       <c r="I41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -3749,8 +3876,11 @@
       <c r="I42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3778,8 +3908,11 @@
       <c r="I43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -3807,8 +3940,11 @@
       <c r="I44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3836,8 +3972,11 @@
       <c r="I45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3865,8 +4004,11 @@
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3894,8 +4036,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3923,8 +4068,11 @@
       <c r="I48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3952,8 +4100,11 @@
       <c r="I49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3981,8 +4132,11 @@
       <c r="I50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -4010,8 +4164,11 @@
       <c r="I51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -4039,8 +4196,11 @@
       <c r="I52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -4068,8 +4228,11 @@
       <c r="I53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -4097,8 +4260,11 @@
       <c r="I54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -4126,8 +4292,11 @@
       <c r="I55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -4155,8 +4324,11 @@
       <c r="I56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -4184,8 +4356,11 @@
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -4213,8 +4388,11 @@
       <c r="I58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -4242,8 +4420,11 @@
       <c r="I59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -4271,8 +4452,11 @@
       <c r="I60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -4300,8 +4484,11 @@
       <c r="I61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -4329,8 +4516,11 @@
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -4358,8 +4548,11 @@
       <c r="I63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -4387,8 +4580,11 @@
       <c r="I64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -4416,8 +4612,11 @@
       <c r="I65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -4445,8 +4644,11 @@
       <c r="I66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -4474,8 +4676,11 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -4503,8 +4708,11 @@
       <c r="I68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -4532,8 +4740,11 @@
       <c r="I69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -4561,8 +4772,11 @@
       <c r="I70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -4590,8 +4804,11 @@
       <c r="I71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -4619,8 +4836,11 @@
       <c r="I72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4648,8 +4868,11 @@
       <c r="I73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -4677,8 +4900,11 @@
       <c r="I74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -4706,8 +4932,11 @@
       <c r="I75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T75">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -4735,8 +4964,11 @@
       <c r="I76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T76">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -4764,8 +4996,11 @@
       <c r="I77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -4793,8 +5028,11 @@
       <c r="I78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -4822,8 +5060,11 @@
       <c r="I79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -4851,8 +5092,11 @@
       <c r="I80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>140</v>
       </c>
@@ -4880,8 +5124,11 @@
       <c r="I81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -4909,8 +5156,11 @@
       <c r="I82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -4938,8 +5188,11 @@
       <c r="I83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -4967,8 +5220,11 @@
       <c r="I84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -4996,8 +5252,11 @@
       <c r="I85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -5055,8 +5314,11 @@
       <c r="S86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>150</v>
       </c>
@@ -5114,8 +5376,11 @@
       <c r="S87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -5173,8 +5438,11 @@
       <c r="S88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -5232,8 +5500,11 @@
       <c r="S89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>30</v>
       </c>
@@ -5291,8 +5562,11 @@
       <c r="S90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -5350,8 +5624,11 @@
       <c r="S91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -5409,8 +5686,11 @@
       <c r="S92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>151</v>
       </c>
@@ -5438,8 +5718,11 @@
       <c r="I93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -5467,8 +5750,11 @@
       <c r="I94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -5496,8 +5782,11 @@
       <c r="I95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -5525,8 +5814,11 @@
       <c r="I96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T96">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -5554,8 +5846,11 @@
       <c r="I97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T97">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -5583,8 +5878,11 @@
       <c r="I98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T98">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -5612,8 +5910,11 @@
       <c r="I99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T99">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -5641,8 +5942,11 @@
       <c r="I100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T100">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>165</v>
       </c>
@@ -5670,8 +5974,11 @@
       <c r="I101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T101">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>166</v>
       </c>
@@ -5699,8 +6006,11 @@
       <c r="I102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T102">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>167</v>
       </c>
@@ -5728,8 +6038,11 @@
       <c r="I103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T103">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>168</v>
       </c>
@@ -5757,8 +6070,11 @@
       <c r="I104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T104">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>169</v>
       </c>
@@ -5786,8 +6102,11 @@
       <c r="I105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T105">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>170</v>
       </c>
@@ -5815,8 +6134,11 @@
       <c r="I106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T106">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>171</v>
       </c>
@@ -5844,8 +6166,11 @@
       <c r="I107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T107">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>175</v>
       </c>
@@ -5873,8 +6198,11 @@
       <c r="I108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T108">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -5902,8 +6230,11 @@
       <c r="I109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T109">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -5931,8 +6262,11 @@
       <c r="I110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T110">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -5960,8 +6294,11 @@
       <c r="I111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T111">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -5989,8 +6326,11 @@
       <c r="I112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T112">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>180</v>
       </c>
@@ -6018,8 +6358,11 @@
       <c r="I113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T113">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -6047,8 +6390,11 @@
       <c r="I114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T114">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>185</v>
       </c>
@@ -6076,8 +6422,11 @@
       <c r="I115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T115">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -6105,8 +6454,11 @@
       <c r="I116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T116">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -6134,8 +6486,11 @@
       <c r="I117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T117">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>188</v>
       </c>
@@ -6163,8 +6518,11 @@
       <c r="I118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T118">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>189</v>
       </c>
@@ -6192,8 +6550,11 @@
       <c r="I119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T119">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>190</v>
       </c>
@@ -6221,8 +6582,11 @@
       <c r="I120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T120">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>191</v>
       </c>
@@ -6250,8 +6614,11 @@
       <c r="I121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T121">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -6279,8 +6646,11 @@
       <c r="I122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T122">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -6308,8 +6678,11 @@
       <c r="I123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T123">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>197</v>
       </c>
@@ -6337,8 +6710,11 @@
       <c r="I124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T124">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>198</v>
       </c>
@@ -6366,8 +6742,11 @@
       <c r="I125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T125">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>199</v>
       </c>
@@ -6395,8 +6774,11 @@
       <c r="I126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T126">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -6424,8 +6806,11 @@
       <c r="I127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T127">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -6453,8 +6838,11 @@
       <c r="I128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T128">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>205</v>
       </c>
@@ -6482,8 +6870,11 @@
       <c r="I129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T129">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>206</v>
       </c>
@@ -6511,8 +6902,11 @@
       <c r="I130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T130">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>207</v>
       </c>
@@ -6540,8 +6934,11 @@
       <c r="I131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T131">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -6569,8 +6966,11 @@
       <c r="I132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T132">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -6598,8 +6998,11 @@
       <c r="I133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T133">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>210</v>
       </c>
@@ -6627,8 +7030,11 @@
       <c r="I134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T134">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>211</v>
       </c>
@@ -6656,8 +7062,11 @@
       <c r="I135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T135">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -6685,8 +7094,11 @@
       <c r="I136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T136">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>216</v>
       </c>
@@ -6714,8 +7126,11 @@
       <c r="I137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T137">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>217</v>
       </c>
@@ -6743,8 +7158,11 @@
       <c r="I138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T138">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>218</v>
       </c>
@@ -6772,8 +7190,11 @@
       <c r="I139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T139">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>219</v>
       </c>
@@ -6801,8 +7222,11 @@
       <c r="I140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T140">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>220</v>
       </c>
@@ -6830,8 +7254,11 @@
       <c r="I141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T141">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>221</v>
       </c>
@@ -6859,8 +7286,11 @@
       <c r="I142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T142">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>225</v>
       </c>
@@ -6888,8 +7318,11 @@
       <c r="I143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T143">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>226</v>
       </c>
@@ -6917,8 +7350,11 @@
       <c r="I144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T144">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>227</v>
       </c>
@@ -6946,8 +7382,11 @@
       <c r="I145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T145">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>228</v>
       </c>
@@ -6975,8 +7414,11 @@
       <c r="I146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T146">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>229</v>
       </c>
@@ -7004,8 +7446,11 @@
       <c r="I147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T147">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>230</v>
       </c>
@@ -7033,8 +7478,11 @@
       <c r="I148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T148">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>231</v>
       </c>
@@ -7062,8 +7510,11 @@
       <c r="I149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T149">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>235</v>
       </c>
@@ -7091,8 +7542,11 @@
       <c r="I150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T150">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>236</v>
       </c>
@@ -7120,8 +7574,11 @@
       <c r="I151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T151">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>237</v>
       </c>
@@ -7149,8 +7606,11 @@
       <c r="I152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T152">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>238</v>
       </c>
@@ -7178,8 +7638,11 @@
       <c r="I153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T153">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>239</v>
       </c>
@@ -7207,8 +7670,11 @@
       <c r="I154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T154">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>240</v>
       </c>
@@ -7236,8 +7702,11 @@
       <c r="I155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T155">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>241</v>
       </c>
@@ -7265,8 +7734,11 @@
       <c r="I156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T156">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>245</v>
       </c>
@@ -7294,8 +7766,11 @@
       <c r="I157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T157">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>246</v>
       </c>
@@ -7323,8 +7798,11 @@
       <c r="I158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T158">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>247</v>
       </c>
@@ -7352,8 +7830,11 @@
       <c r="I159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T159">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>248</v>
       </c>
@@ -7381,8 +7862,11 @@
       <c r="I160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T160">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>249</v>
       </c>
@@ -7410,8 +7894,11 @@
       <c r="I161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T161">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>250</v>
       </c>
@@ -7439,8 +7926,11 @@
       <c r="I162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T162">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>251</v>
       </c>
@@ -7468,8 +7958,11 @@
       <c r="I163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T163">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -7497,8 +7990,11 @@
       <c r="I164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T164">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>256</v>
       </c>
@@ -7526,8 +8022,11 @@
       <c r="I165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T165">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>257</v>
       </c>
@@ -7555,8 +8054,11 @@
       <c r="I166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T166">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>258</v>
       </c>
@@ -7584,8 +8086,11 @@
       <c r="I167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T167">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>259</v>
       </c>
@@ -7613,8 +8118,11 @@
       <c r="I168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T168">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>260</v>
       </c>
@@ -7642,8 +8150,11 @@
       <c r="I169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T169">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>261</v>
       </c>
@@ -7671,8 +8182,11 @@
       <c r="I170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T170">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>265</v>
       </c>
@@ -7700,8 +8214,11 @@
       <c r="I171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T171">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>266</v>
       </c>
@@ -7729,8 +8246,11 @@
       <c r="I172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T172">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>267</v>
       </c>
@@ -7758,8 +8278,11 @@
       <c r="I173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T173">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>268</v>
       </c>
@@ -7787,8 +8310,11 @@
       <c r="I174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T174">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>269</v>
       </c>
@@ -7816,8 +8342,11 @@
       <c r="I175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T175">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>270</v>
       </c>
@@ -7845,8 +8374,11 @@
       <c r="I176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T176">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>271</v>
       </c>
@@ -7874,8 +8406,11 @@
       <c r="I177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T177">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>275</v>
       </c>
@@ -7903,8 +8438,11 @@
       <c r="I178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T178">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>276</v>
       </c>
@@ -7932,8 +8470,11 @@
       <c r="I179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T179">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>277</v>
       </c>
@@ -7961,8 +8502,11 @@
       <c r="I180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T180">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>278</v>
       </c>
@@ -7990,8 +8534,11 @@
       <c r="I181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T181">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>279</v>
       </c>
@@ -8019,8 +8566,11 @@
       <c r="I182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T182">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>280</v>
       </c>
@@ -8048,8 +8598,11 @@
       <c r="I183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T183">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>281</v>
       </c>
@@ -8077,8 +8630,11 @@
       <c r="I184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T184">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>285</v>
       </c>
@@ -8106,8 +8662,11 @@
       <c r="I185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T185">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>286</v>
       </c>
@@ -8135,8 +8694,11 @@
       <c r="I186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T186">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>287</v>
       </c>
@@ -8164,8 +8726,11 @@
       <c r="I187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T187">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>288</v>
       </c>
@@ -8193,8 +8758,11 @@
       <c r="I188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T188">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>289</v>
       </c>
@@ -8222,8 +8790,11 @@
       <c r="I189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T189">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>290</v>
       </c>
@@ -8251,8 +8822,11 @@
       <c r="I190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T190">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>291</v>
       </c>
@@ -8280,8 +8854,11 @@
       <c r="I191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T191">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>295</v>
       </c>
@@ -8309,8 +8886,11 @@
       <c r="I192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T192">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>296</v>
       </c>
@@ -8338,8 +8918,11 @@
       <c r="I193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T193">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>297</v>
       </c>
@@ -8367,8 +8950,11 @@
       <c r="I194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T194">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>298</v>
       </c>
@@ -8396,8 +8982,11 @@
       <c r="I195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T195">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>299</v>
       </c>
@@ -8425,8 +9014,11 @@
       <c r="I196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T196">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>300</v>
       </c>
@@ -8454,8 +9046,11 @@
       <c r="I197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T197">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>301</v>
       </c>
@@ -8483,8 +9078,11 @@
       <c r="I198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T198">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>305</v>
       </c>
@@ -8512,8 +9110,11 @@
       <c r="I199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T199">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>306</v>
       </c>
@@ -8541,8 +9142,11 @@
       <c r="I200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T200">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>307</v>
       </c>
@@ -8570,8 +9174,11 @@
       <c r="I201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T201">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>308</v>
       </c>
@@ -8599,8 +9206,11 @@
       <c r="I202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T202">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>309</v>
       </c>
@@ -8628,8 +9238,11 @@
       <c r="I203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T203">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>310</v>
       </c>
@@ -8657,8 +9270,11 @@
       <c r="I204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T204">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>311</v>
       </c>
@@ -8686,8 +9302,11 @@
       <c r="I205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T205">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>315</v>
       </c>
@@ -8715,8 +9334,11 @@
       <c r="I206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T206">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>316</v>
       </c>
@@ -8744,8 +9366,11 @@
       <c r="I207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T207">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>317</v>
       </c>
@@ -8773,8 +9398,11 @@
       <c r="I208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T208">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>318</v>
       </c>
@@ -8802,8 +9430,11 @@
       <c r="I209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T209">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>319</v>
       </c>
@@ -8831,8 +9462,11 @@
       <c r="I210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T210">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>320</v>
       </c>
@@ -8860,8 +9494,11 @@
       <c r="I211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T211">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>321</v>
       </c>
@@ -8889,8 +9526,11 @@
       <c r="I212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T212">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>325</v>
       </c>
@@ -8918,8 +9558,11 @@
       <c r="I213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T213">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>326</v>
       </c>
@@ -8947,8 +9590,11 @@
       <c r="I214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T214">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>327</v>
       </c>
@@ -8976,8 +9622,11 @@
       <c r="I215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T215">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>328</v>
       </c>
@@ -9005,8 +9654,11 @@
       <c r="I216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T216">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>329</v>
       </c>
@@ -9034,8 +9686,11 @@
       <c r="I217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T217">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>330</v>
       </c>
@@ -9063,8 +9718,11 @@
       <c r="I218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T218">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>331</v>
       </c>
@@ -9092,8 +9750,11 @@
       <c r="I219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T219">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>335</v>
       </c>
@@ -9121,8 +9782,11 @@
       <c r="I220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T220">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>336</v>
       </c>
@@ -9150,8 +9814,11 @@
       <c r="I221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T221">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>337</v>
       </c>
@@ -9179,8 +9846,11 @@
       <c r="I222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T222">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>338</v>
       </c>
@@ -9208,8 +9878,11 @@
       <c r="I223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T223">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>339</v>
       </c>
@@ -9237,8 +9910,11 @@
       <c r="I224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T224">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>340</v>
       </c>
@@ -9266,8 +9942,11 @@
       <c r="I225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T225">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>341</v>
       </c>
@@ -9295,8 +9974,11 @@
       <c r="I226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T226">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>345</v>
       </c>
@@ -9324,8 +10006,11 @@
       <c r="I227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T227">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>346</v>
       </c>
@@ -9353,8 +10038,11 @@
       <c r="I228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T228">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>347</v>
       </c>
@@ -9382,8 +10070,11 @@
       <c r="I229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T229">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>348</v>
       </c>
@@ -9411,8 +10102,11 @@
       <c r="I230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T230">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>349</v>
       </c>
@@ -9440,8 +10134,11 @@
       <c r="I231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T231">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>350</v>
       </c>
@@ -9469,8 +10166,11 @@
       <c r="I232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T232">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>351</v>
       </c>
@@ -9498,8 +10198,11 @@
       <c r="I233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T233">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>355</v>
       </c>
@@ -9527,8 +10230,11 @@
       <c r="I234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T234">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>356</v>
       </c>
@@ -9556,8 +10262,11 @@
       <c r="I235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T235">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>357</v>
       </c>
@@ -9585,8 +10294,11 @@
       <c r="I236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T236">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>358</v>
       </c>
@@ -9614,8 +10326,11 @@
       <c r="I237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T237">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>359</v>
       </c>
@@ -9643,8 +10358,11 @@
       <c r="I238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T238">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>360</v>
       </c>
@@ -9672,8 +10390,11 @@
       <c r="I239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T239">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>361</v>
       </c>
@@ -9701,8 +10422,11 @@
       <c r="I240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T240">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>365</v>
       </c>
@@ -9730,8 +10454,11 @@
       <c r="I241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T241">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>366</v>
       </c>
@@ -9759,8 +10486,11 @@
       <c r="I242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T242">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>367</v>
       </c>
@@ -9788,8 +10518,11 @@
       <c r="I243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T243">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>368</v>
       </c>
@@ -9817,8 +10550,11 @@
       <c r="I244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T244">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>369</v>
       </c>
@@ -9846,8 +10582,11 @@
       <c r="I245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T245">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>370</v>
       </c>
@@ -9875,8 +10614,11 @@
       <c r="I246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T246">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>371</v>
       </c>
@@ -9904,8 +10646,11 @@
       <c r="I247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T247">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>375</v>
       </c>
@@ -9933,8 +10678,11 @@
       <c r="I248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T248">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>376</v>
       </c>
@@ -9962,8 +10710,11 @@
       <c r="I249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T249">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>377</v>
       </c>
@@ -9991,8 +10742,11 @@
       <c r="I250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T250">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>378</v>
       </c>
@@ -10020,8 +10774,11 @@
       <c r="I251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T251">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>379</v>
       </c>
@@ -10049,8 +10806,11 @@
       <c r="I252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T252">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>380</v>
       </c>
@@ -10078,8 +10838,11 @@
       <c r="I253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T253">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>381</v>
       </c>
@@ -10107,8 +10870,11 @@
       <c r="I254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T254">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>385</v>
       </c>
@@ -10136,8 +10902,11 @@
       <c r="I255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T255">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>386</v>
       </c>
@@ -10165,8 +10934,11 @@
       <c r="I256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T256">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>387</v>
       </c>
@@ -10194,8 +10966,11 @@
       <c r="I257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T257">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>388</v>
       </c>
@@ -10223,8 +10998,11 @@
       <c r="I258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T258">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>389</v>
       </c>
@@ -10252,8 +11030,11 @@
       <c r="I259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T259">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>390</v>
       </c>
@@ -10281,8 +11062,11 @@
       <c r="I260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T260">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>391</v>
       </c>
@@ -10310,8 +11094,11 @@
       <c r="I261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T261">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>395</v>
       </c>
@@ -10339,8 +11126,11 @@
       <c r="I262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T262">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>396</v>
       </c>
@@ -10368,8 +11158,11 @@
       <c r="I263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T263">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>397</v>
       </c>
@@ -10397,8 +11190,11 @@
       <c r="I264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T264">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>398</v>
       </c>
@@ -10426,8 +11222,11 @@
       <c r="I265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T265">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>399</v>
       </c>
@@ -10455,8 +11254,11 @@
       <c r="I266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T266">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>400</v>
       </c>
@@ -10484,8 +11286,11 @@
       <c r="I267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T267">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>401</v>
       </c>
@@ -10513,8 +11318,11 @@
       <c r="I268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T268">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>405</v>
       </c>
@@ -10542,8 +11350,11 @@
       <c r="I269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T269">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>406</v>
       </c>
@@ -10571,8 +11382,11 @@
       <c r="I270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T270">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>407</v>
       </c>
@@ -10600,8 +11414,11 @@
       <c r="I271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T271">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>408</v>
       </c>
@@ -10629,8 +11446,11 @@
       <c r="I272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T272">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>409</v>
       </c>
@@ -10658,8 +11478,11 @@
       <c r="I273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T273">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>410</v>
       </c>
@@ -10687,8 +11510,11 @@
       <c r="I274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T274">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>411</v>
       </c>
@@ -10716,8 +11542,11 @@
       <c r="I275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T275">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>415</v>
       </c>
@@ -10745,8 +11574,11 @@
       <c r="I276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T276">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>416</v>
       </c>
@@ -10774,8 +11606,11 @@
       <c r="I277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T277">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>417</v>
       </c>
@@ -10803,8 +11638,11 @@
       <c r="I278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T278">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>418</v>
       </c>
@@ -10832,8 +11670,11 @@
       <c r="I279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T279">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>419</v>
       </c>
@@ -10861,8 +11702,11 @@
       <c r="I280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T280">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>420</v>
       </c>
@@ -10890,8 +11734,11 @@
       <c r="I281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T281">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>421</v>
       </c>
@@ -10919,8 +11766,11 @@
       <c r="I282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T282">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>425</v>
       </c>
@@ -10948,8 +11798,11 @@
       <c r="I283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T283">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>426</v>
       </c>
@@ -10977,8 +11830,11 @@
       <c r="I284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T284">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>427</v>
       </c>
@@ -11006,8 +11862,11 @@
       <c r="I285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T285">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>428</v>
       </c>
@@ -11035,8 +11894,11 @@
       <c r="I286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T286">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>429</v>
       </c>
@@ -11064,8 +11926,11 @@
       <c r="I287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T287">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>430</v>
       </c>
@@ -11093,8 +11958,11 @@
       <c r="I288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T288">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>431</v>
       </c>
@@ -11122,8 +11990,11 @@
       <c r="I289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T289">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>435</v>
       </c>
@@ -11151,8 +12022,11 @@
       <c r="I290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T290">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>436</v>
       </c>
@@ -11180,8 +12054,11 @@
       <c r="I291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T291">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>437</v>
       </c>
@@ -11209,8 +12086,11 @@
       <c r="I292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T292">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>438</v>
       </c>
@@ -11238,8 +12118,11 @@
       <c r="I293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T293">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>439</v>
       </c>
@@ -11267,8 +12150,11 @@
       <c r="I294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T294">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>440</v>
       </c>
@@ -11296,8 +12182,11 @@
       <c r="I295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T295">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>441</v>
       </c>
@@ -11325,8 +12214,11 @@
       <c r="I296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T296">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>445</v>
       </c>
@@ -11354,8 +12246,11 @@
       <c r="I297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T297">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>446</v>
       </c>
@@ -11383,8 +12278,11 @@
       <c r="I298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T298">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>447</v>
       </c>
@@ -11412,8 +12310,11 @@
       <c r="I299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T299">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>448</v>
       </c>
@@ -11441,8 +12342,11 @@
       <c r="I300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T300">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>449</v>
       </c>
@@ -11470,8 +12374,11 @@
       <c r="I301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T301">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>450</v>
       </c>
@@ -11499,8 +12406,11 @@
       <c r="I302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T302">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>451</v>
       </c>
@@ -11528,8 +12438,11 @@
       <c r="I303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T303">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>455</v>
       </c>
@@ -11557,8 +12470,11 @@
       <c r="I304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T304">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>456</v>
       </c>
@@ -11586,8 +12502,11 @@
       <c r="I305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T305">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>457</v>
       </c>
@@ -11615,8 +12534,11 @@
       <c r="I306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T306">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>458</v>
       </c>
@@ -11644,8 +12566,11 @@
       <c r="I307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T307">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>459</v>
       </c>
@@ -11673,8 +12598,11 @@
       <c r="I308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T308">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>460</v>
       </c>
@@ -11702,8 +12630,11 @@
       <c r="I309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T309">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>461</v>
       </c>
@@ -11731,8 +12662,11 @@
       <c r="I310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T310">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>465</v>
       </c>
@@ -11760,8 +12694,11 @@
       <c r="I311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T311">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>466</v>
       </c>
@@ -11789,8 +12726,11 @@
       <c r="I312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T312">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>467</v>
       </c>
@@ -11818,8 +12758,11 @@
       <c r="I313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T313">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>468</v>
       </c>
@@ -11847,8 +12790,11 @@
       <c r="I314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T314">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>469</v>
       </c>
@@ -11876,8 +12822,11 @@
       <c r="I315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T315">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>470</v>
       </c>
@@ -11905,8 +12854,11 @@
       <c r="I316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T316">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>471</v>
       </c>
@@ -11934,8 +12886,11 @@
       <c r="I317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T317">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>475</v>
       </c>
@@ -11963,8 +12918,11 @@
       <c r="I318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T318">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>476</v>
       </c>
@@ -11992,8 +12950,11 @@
       <c r="I319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T319">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>477</v>
       </c>
@@ -12021,8 +12982,11 @@
       <c r="I320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T320">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>478</v>
       </c>
@@ -12050,8 +13014,11 @@
       <c r="I321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T321">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>479</v>
       </c>
@@ -12079,8 +13046,11 @@
       <c r="I322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T322">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>480</v>
       </c>
@@ -12108,8 +13078,11 @@
       <c r="I323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T323">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>481</v>
       </c>
@@ -12137,8 +13110,11 @@
       <c r="I324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T324">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>485</v>
       </c>
@@ -12166,8 +13142,11 @@
       <c r="I325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T325">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>486</v>
       </c>
@@ -12195,8 +13174,11 @@
       <c r="I326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T326">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>487</v>
       </c>
@@ -12224,8 +13206,11 @@
       <c r="I327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T327">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>488</v>
       </c>
@@ -12253,8 +13238,11 @@
       <c r="I328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T328">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>489</v>
       </c>
@@ -12282,8 +13270,11 @@
       <c r="I329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T329">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>490</v>
       </c>
@@ -12311,8 +13302,11 @@
       <c r="I330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T330">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>491</v>
       </c>
@@ -12340,8 +13334,11 @@
       <c r="I331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T331">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>495</v>
       </c>
@@ -12369,8 +13366,11 @@
       <c r="I332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T332">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>496</v>
       </c>
@@ -12398,8 +13398,11 @@
       <c r="I333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T333">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>497</v>
       </c>
@@ -12427,8 +13430,11 @@
       <c r="I334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T334">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>498</v>
       </c>
@@ -12456,8 +13462,11 @@
       <c r="I335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T335">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>499</v>
       </c>
@@ -12485,8 +13494,11 @@
       <c r="I336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T336">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>500</v>
       </c>
@@ -12514,8 +13526,11 @@
       <c r="I337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T337">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>501</v>
       </c>
@@ -12543,8 +13558,11 @@
       <c r="I338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T338">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>505</v>
       </c>
@@ -12572,8 +13590,11 @@
       <c r="I339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T339">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>506</v>
       </c>
@@ -12601,8 +13622,11 @@
       <c r="I340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T340">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>507</v>
       </c>
@@ -12630,8 +13654,11 @@
       <c r="I341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T341">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>508</v>
       </c>
@@ -12659,8 +13686,11 @@
       <c r="I342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T342">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>509</v>
       </c>
@@ -12688,8 +13718,11 @@
       <c r="I343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T343">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>510</v>
       </c>
@@ -12717,8 +13750,11 @@
       <c r="I344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T344">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>511</v>
       </c>
@@ -12746,8 +13782,11 @@
       <c r="I345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T345">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>515</v>
       </c>
@@ -12775,8 +13814,11 @@
       <c r="I346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T346">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>516</v>
       </c>
@@ -12804,8 +13846,11 @@
       <c r="I347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T347">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>517</v>
       </c>
@@ -12833,8 +13878,11 @@
       <c r="I348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T348">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>518</v>
       </c>
@@ -12862,8 +13910,11 @@
       <c r="I349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T349">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>519</v>
       </c>
@@ -12891,8 +13942,11 @@
       <c r="I350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T350">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>520</v>
       </c>
@@ -12920,8 +13974,11 @@
       <c r="I351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T351">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>521</v>
       </c>
@@ -12949,8 +14006,11 @@
       <c r="I352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T352">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>525</v>
       </c>
@@ -12978,8 +14038,11 @@
       <c r="I353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T353">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>526</v>
       </c>
@@ -13007,8 +14070,11 @@
       <c r="I354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T354">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>527</v>
       </c>
@@ -13036,8 +14102,11 @@
       <c r="I355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T355">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>528</v>
       </c>
@@ -13065,8 +14134,11 @@
       <c r="I356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T356">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>529</v>
       </c>
@@ -13094,8 +14166,11 @@
       <c r="I357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T357">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>530</v>
       </c>
@@ -13123,8 +14198,11 @@
       <c r="I358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T358">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>531</v>
       </c>
@@ -13152,8 +14230,11 @@
       <c r="I359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T359">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>535</v>
       </c>
@@ -13181,8 +14262,11 @@
       <c r="I360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T360">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>536</v>
       </c>
@@ -13210,8 +14294,11 @@
       <c r="I361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T361">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>537</v>
       </c>
@@ -13239,8 +14326,11 @@
       <c r="I362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T362">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>538</v>
       </c>
@@ -13268,8 +14358,11 @@
       <c r="I363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T363">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>539</v>
       </c>
@@ -13297,8 +14390,11 @@
       <c r="I364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T364">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>540</v>
       </c>
@@ -13326,8 +14422,11 @@
       <c r="I365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T365">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>541</v>
       </c>
@@ -13355,8 +14454,11 @@
       <c r="I366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T366">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>545</v>
       </c>
@@ -13384,8 +14486,11 @@
       <c r="I367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T367">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>546</v>
       </c>
@@ -13413,8 +14518,11 @@
       <c r="I368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T368">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>547</v>
       </c>
@@ -13442,8 +14550,11 @@
       <c r="I369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T369">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>548</v>
       </c>
@@ -13471,8 +14582,11 @@
       <c r="I370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T370">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>549</v>
       </c>
@@ -13500,8 +14614,11 @@
       <c r="I371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T371">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>550</v>
       </c>
@@ -13529,8 +14646,11 @@
       <c r="I372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T372">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>551</v>
       </c>
@@ -13558,8 +14678,11 @@
       <c r="I373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T373">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>555</v>
       </c>
@@ -13587,8 +14710,11 @@
       <c r="I374">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T374">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>556</v>
       </c>
@@ -13616,8 +14742,11 @@
       <c r="I375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T375">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>557</v>
       </c>
@@ -13645,8 +14774,11 @@
       <c r="I376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T376">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>558</v>
       </c>
@@ -13674,8 +14806,11 @@
       <c r="I377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T377">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>559</v>
       </c>
@@ -13703,8 +14838,11 @@
       <c r="I378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="T378">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>560</v>
       </c>
@@ -13731,6 +14869,9 @@
       </c>
       <c r="I379">
         <v>1</v>
+      </c>
+      <c r="T379">
+        <v>8201</v>
       </c>
     </row>
   </sheetData>
@@ -13742,11 +14883,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512A4D91-0EC8-47A0-B216-66CBBABEAC7F}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13758,7 +14897,7 @@
     <col min="8" max="8" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -13786,8 +14925,11 @@
       <c r="I1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13815,8 +14957,11 @@
       <c r="I2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13844,8 +14989,11 @@
       <c r="I3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13873,8 +15021,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13902,8 +15053,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13931,8 +15085,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13960,8 +15117,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -13989,8 +15149,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -14018,8 +15181,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -14047,8 +15213,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14076,8 +15245,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -14105,8 +15277,11 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14134,8 +15309,11 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -14163,8 +15341,11 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -14192,8 +15373,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -14221,8 +15405,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -14250,8 +15437,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -14279,8 +15469,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -14308,8 +15501,11 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -14337,8 +15533,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -14366,8 +15565,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -14395,8 +15597,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -14424,8 +15629,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -14453,8 +15661,11 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -14482,8 +15693,11 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -14511,8 +15725,11 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -14540,8 +15757,11 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -14569,8 +15789,11 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -14598,8 +15821,11 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -14627,8 +15853,11 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -14656,8 +15885,11 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -14685,8 +15917,11 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -14714,8 +15949,11 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -14743,8 +15981,11 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -14772,8 +16013,11 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -14801,8 +16045,11 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -14830,8 +16077,11 @@
       <c r="I37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -14859,8 +16109,11 @@
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -14888,8 +16141,11 @@
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -14917,8 +16173,11 @@
       <c r="I40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -14946,8 +16205,11 @@
       <c r="I41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -14975,8 +16237,11 @@
       <c r="I42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -15004,8 +16269,11 @@
       <c r="I43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -15033,8 +16301,11 @@
       <c r="I44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -15062,8 +16333,11 @@
       <c r="I45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -15091,8 +16365,11 @@
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -15120,8 +16397,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -15149,8 +16429,11 @@
       <c r="I48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -15178,8 +16461,11 @@
       <c r="I49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -15207,8 +16493,11 @@
       <c r="I50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -15236,8 +16525,11 @@
       <c r="I51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -15265,8 +16557,11 @@
       <c r="I52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -15294,8 +16589,11 @@
       <c r="I53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -15323,8 +16621,11 @@
       <c r="I54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -15352,8 +16653,11 @@
       <c r="I55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -15381,8 +16685,11 @@
       <c r="I56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -15410,8 +16717,11 @@
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -15438,6 +16748,9 @@
       </c>
       <c r="I58">
         <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E74721-96D5-4921-8B35-E6F443FD90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC1743-CB62-4AFA-9CCE-0FC64AC05E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="606">
   <si>
     <t>equipId|String</t>
   </si>
@@ -1848,6 +1848,12 @@
   </si>
   <si>
     <t>Equip068202</t>
+  </si>
+  <si>
+    <t>Weapon0003</t>
+  </si>
+  <si>
+    <t>Weapon0004</t>
   </si>
 </sst>
 </file>
@@ -6355,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>541</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>545</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>546</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>547</v>
       </c>
@@ -6483,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>173</v>
       </c>
@@ -6514,8 +6520,14 @@
       <c r="J117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S117" t="s">
+        <v>604</v>
+      </c>
+      <c r="T117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>177</v>
       </c>
@@ -6546,8 +6558,14 @@
       <c r="J118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S118" t="s">
+        <v>604</v>
+      </c>
+      <c r="T118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>178</v>
       </c>
@@ -6578,8 +6596,14 @@
       <c r="J119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S119" t="s">
+        <v>604</v>
+      </c>
+      <c r="T119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>179</v>
       </c>
@@ -6610,8 +6634,14 @@
       <c r="J120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S120" t="s">
+        <v>604</v>
+      </c>
+      <c r="T120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>180</v>
       </c>
@@ -6642,8 +6672,14 @@
       <c r="J121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S121" t="s">
+        <v>604</v>
+      </c>
+      <c r="T121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>181</v>
       </c>
@@ -6674,8 +6710,14 @@
       <c r="J122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S122" t="s">
+        <v>604</v>
+      </c>
+      <c r="T122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>182</v>
       </c>
@@ -6706,8 +6748,14 @@
       <c r="J123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S123" t="s">
+        <v>604</v>
+      </c>
+      <c r="T123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>183</v>
       </c>
@@ -6739,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -6771,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>188</v>
       </c>
@@ -6803,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>189</v>
       </c>
@@ -6835,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>190</v>
       </c>
@@ -7379,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>216</v>
       </c>
@@ -7411,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>220</v>
       </c>
@@ -7443,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>221</v>
       </c>
@@ -7475,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>222</v>
       </c>
@@ -7507,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>223</v>
       </c>
@@ -7539,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>548</v>
       </c>
@@ -7571,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>552</v>
       </c>
@@ -7603,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>553</v>
       </c>
@@ -7635,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>554</v>
       </c>
@@ -7667,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>224</v>
       </c>
@@ -7698,8 +7746,14 @@
       <c r="J154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S154" t="s">
+        <v>605</v>
+      </c>
+      <c r="T154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>228</v>
       </c>
@@ -7730,8 +7784,14 @@
       <c r="J155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S155" t="s">
+        <v>605</v>
+      </c>
+      <c r="T155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>229</v>
       </c>
@@ -7762,8 +7822,14 @@
       <c r="J156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S156" t="s">
+        <v>605</v>
+      </c>
+      <c r="T156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>230</v>
       </c>
@@ -7794,8 +7860,14 @@
       <c r="J157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S157" t="s">
+        <v>605</v>
+      </c>
+      <c r="T157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>231</v>
       </c>
@@ -7826,8 +7898,14 @@
       <c r="J158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S158" t="s">
+        <v>605</v>
+      </c>
+      <c r="T158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>232</v>
       </c>
@@ -7858,8 +7936,14 @@
       <c r="J159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="S159" t="s">
+        <v>605</v>
+      </c>
+      <c r="T159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>233</v>
       </c>
@@ -7889,6 +7973,12 @@
       </c>
       <c r="J160">
         <v>1</v>
+      </c>
+      <c r="S160" t="s">
+        <v>605</v>
+      </c>
+      <c r="T160">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30BF030-ACC6-42D0-AC95-B4A4B6203796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BCCC4-4683-437F-8A27-2356DC9A57EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -87,15 +87,6 @@
     <t>Equip060001</t>
   </si>
   <si>
-    <t>PickAxe</t>
-  </si>
-  <si>
-    <t>Shot_PickAxe</t>
-  </si>
-  <si>
-    <t>EquipName_PickAxe</t>
-  </si>
-  <si>
     <t>Equip030101</t>
   </si>
   <si>
@@ -1744,6 +1735,15 @@
   </si>
   <si>
     <t>E8201</t>
+  </si>
+  <si>
+    <t>FairyAxe</t>
+  </si>
+  <si>
+    <t>Shot_FairyAxe</t>
+  </si>
+  <si>
+    <t>EquipName_FairyAxe</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2121,60 +2121,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>565</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>566</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>567</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>0.15</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2352,13 +2352,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2444,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2467,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2490,13 +2490,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2513,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>0.03</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2589,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2612,13 +2612,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2635,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2658,13 +2658,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2710,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2733,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2756,13 +2756,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2779,13 +2779,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -2802,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -2825,19 +2825,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2900,13 +2900,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2923,13 +2923,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2946,13 +2946,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2969,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3015,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E34" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3038,13 +3038,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3061,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -3084,13 +3084,13 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E37" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -3107,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -3130,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -3176,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F41" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3199,13 +3199,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3222,13 +3222,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E43" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3245,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E45" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3291,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3314,13 +3314,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E47" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3337,13 +3337,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F48" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3360,13 +3360,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E49" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F49" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3383,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E50" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F50" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E51" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E52" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F52" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E53" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F53" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -3475,13 +3475,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E54" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3498,13 +3498,13 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E55" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3521,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3534,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3548,7 +3548,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3590,13 +3590,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3604,13 +3604,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,13 +3618,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,21 +3632,21 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3671,10 +3671,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3685,66 +3685,66 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3783,234 +3783,234 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C34">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4035,10 +4035,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -4049,66 +4049,66 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C41">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4133,10 +4133,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -4147,66 +4147,66 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4217,10 +4217,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4245,234 +4245,234 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C59">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C67">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4511,66 +4511,66 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C74">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4595,10 +4595,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -4609,66 +4609,66 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C81">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -4707,234 +4707,234 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C88">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C91">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C92">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C95">
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C98">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B99" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C99">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -4973,66 +4973,66 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C106">
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B107" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C107">
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B108" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -5043,10 +5043,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5057,10 +5057,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -5071,66 +5071,66 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C113">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B114" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C114">
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B115" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B116" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -5169,234 +5169,234 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B118" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B119" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C119">
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C120">
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B121" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C121">
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B122" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B123" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B124" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C124">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B125" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C125">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B126" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B127" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C127">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B128" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C128">
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C129">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B130" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B131" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B132" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C132">
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B133" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C133">
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B134" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B135" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -5421,10 +5421,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -5435,66 +5435,66 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B137" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B138" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C138">
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C139">
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B140" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C140">
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B141" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B142" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B143" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -5533,66 +5533,66 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B144" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C144">
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B145" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C145">
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B146" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C146">
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B147" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C147">
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B148" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5603,10 +5603,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B150" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -5631,234 +5631,234 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B151" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C151">
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B152" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B153" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C153">
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B154" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C154">
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B155" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B156" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B157" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C157">
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B158" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C158">
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C159">
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C161">
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B162" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C162">
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C163">
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B164" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C164">
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C165">
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B166" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C166">
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -5869,10 +5869,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B168" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -5883,10 +5883,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B169" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -5897,66 +5897,66 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B170" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C170">
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B171" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C171">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B172" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C172">
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B173" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C173">
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B174" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -5981,10 +5981,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B176" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -5995,66 +5995,66 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B177" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C177">
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B178" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C178">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B179" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C179">
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B180" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C180">
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B181" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B182" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -6079,10 +6079,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B183" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C183">
         <v>2</v>
@@ -6093,234 +6093,234 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B184" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B185" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C185">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B186" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C186">
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B187" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C187">
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B189" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C189">
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B190" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C190">
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B191" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C191">
         <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B192" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C192">
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B193" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C193">
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B194" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C194">
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C195">
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B196" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C196">
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B197" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C197">
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B198" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C198">
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B199" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C199">
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B200" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -6331,10 +6331,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B201" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B202" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -6359,66 +6359,66 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B203" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C203">
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B204" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C204">
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B205" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C205">
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B206" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C206">
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B207" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B208" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -6443,10 +6443,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B209" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -6457,66 +6457,66 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B210" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C210">
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B211" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C211">
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B212" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C212">
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B213" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C213">
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B214" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -6527,10 +6527,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B215" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B216" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -6555,234 +6555,234 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B217" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C217">
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B218" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C218">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B219" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C219">
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B220" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C220">
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B221" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C221">
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B222" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C222">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B223" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C223">
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B224" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C224">
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B225" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C225">
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B226" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C226">
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B227" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C227">
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B228" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C228">
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B229" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B230" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C230">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B231" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C231">
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B232" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C232">
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B233" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -6793,10 +6793,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B234" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B235" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C235">
         <v>2</v>
@@ -6821,66 +6821,66 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B236" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C236">
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B237" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C237">
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B238" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C238">
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B239" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C239">
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B240" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -6891,10 +6891,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B241" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -6905,10 +6905,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B242" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -6919,66 +6919,66 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B243" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C243">
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B244" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C244">
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B245" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C245">
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B246" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C246">
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B247" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -6989,10 +6989,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B248" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -7003,10 +7003,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B249" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -7017,234 +7017,234 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B250" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C250">
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B251" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C251">
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B252" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C252">
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B253" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C253">
         <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B254" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C254">
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B255" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C255">
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B256" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C256">
         <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B257" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C257">
         <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B258" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C258">
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B259" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C259">
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B260" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C260">
         <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B261" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C261">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B262" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C262">
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B263" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C263">
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B264" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C264">
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B265" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C265">
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B266" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -7255,10 +7255,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B267" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -7269,10 +7269,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B268" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C268">
         <v>2</v>
@@ -7283,66 +7283,66 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B269" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C269">
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B270" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C270">
         <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B271" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C271">
         <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B272" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C272">
         <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B273" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -7353,10 +7353,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B274" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -7367,10 +7367,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B275" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C275">
         <v>2</v>
@@ -7381,66 +7381,66 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B276" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C276">
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B277" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C277">
         <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B278" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C278">
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B279" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C279">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B280" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -7451,10 +7451,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B281" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B282" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C282">
         <v>2</v>
@@ -7479,226 +7479,226 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B283" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C283">
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B284" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C284">
         <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B285" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C285">
         <v>5</v>
       </c>
       <c r="D285" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B286" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C286">
         <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B287" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C287">
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B288" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C288">
         <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B289" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C289">
         <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B290" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C290">
         <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B291" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C291">
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B292" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C292">
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B293" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C293">
         <v>5</v>
       </c>
       <c r="D293" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B294" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C294">
         <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B295" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C295">
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B296" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C296">
         <v>4</v>
       </c>
       <c r="D296" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B297" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C297">
         <v>5</v>
       </c>
       <c r="D297" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B298" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C298">
         <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7723,25 +7723,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1" t="s">
         <v>481</v>
-      </c>
-      <c r="D1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9071,10 +9071,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BCCC4-4683-437F-8A27-2356DC9A57EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462B838-F63F-4DE8-B1EB-1BC5FFC198A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -1494,78 +1494,6 @@
     <t>atk|Int!</t>
   </si>
   <si>
-    <t>400, 420, 440</t>
-  </si>
-  <si>
-    <t>500, 520, 540, 560</t>
-  </si>
-  <si>
-    <t>600, 620, 640, 660, 680</t>
-  </si>
-  <si>
-    <t>700, 720, 740, 760, 780, 800</t>
-  </si>
-  <si>
-    <t>401, 421, 441</t>
-  </si>
-  <si>
-    <t>501, 521, 541, 561</t>
-  </si>
-  <si>
-    <t>601, 621, 641, 661, 681</t>
-  </si>
-  <si>
-    <t>701, 721, 741, 761, 781, 801</t>
-  </si>
-  <si>
-    <t>402, 422, 442</t>
-  </si>
-  <si>
-    <t>502, 522, 542, 562</t>
-  </si>
-  <si>
-    <t>602, 622, 642, 662, 682</t>
-  </si>
-  <si>
-    <t>702, 722, 742, 762, 782, 802</t>
-  </si>
-  <si>
-    <t>600, 620, 640</t>
-  </si>
-  <si>
-    <t>750, 770, 790, 810</t>
-  </si>
-  <si>
-    <t>900, 920, 940, 960, 980</t>
-  </si>
-  <si>
-    <t>1050, 1070, 1090, 1110, 1130, 1150</t>
-  </si>
-  <si>
-    <t>601, 621, 641</t>
-  </si>
-  <si>
-    <t>751, 771, 791, 811</t>
-  </si>
-  <si>
-    <t>901, 921, 941, 961, 981</t>
-  </si>
-  <si>
-    <t>1051, 1071, 1091, 1111, 1131, 1151</t>
-  </si>
-  <si>
-    <t>800, 820, 840</t>
-  </si>
-  <si>
-    <t>1000, 1020, 1040, 1060</t>
-  </si>
-  <si>
-    <t>1200, 1220, 1240, 1260, 1280</t>
-  </si>
-  <si>
-    <t>1400, 1420, 1440, 1460, 1480, 1500</t>
-  </si>
-  <si>
     <t>Weapon0003</t>
   </si>
   <si>
@@ -1744,6 +1672,78 @@
   </si>
   <si>
     <t>EquipName_FairyAxe</t>
+  </si>
+  <si>
+    <t>300, 337, 374</t>
+  </si>
+  <si>
+    <t>500, 562, 624, 686</t>
+  </si>
+  <si>
+    <t>750, 843, 936, 1029, 1122</t>
+  </si>
+  <si>
+    <t>1000, 1125, 1250, 1375, 1500, 1625</t>
+  </si>
+  <si>
+    <t>301, 338, 375</t>
+  </si>
+  <si>
+    <t>501, 563, 625, 687</t>
+  </si>
+  <si>
+    <t>751, 844, 937, 1030, 1123</t>
+  </si>
+  <si>
+    <t>1001, 1126, 1251, 1376, 1501, 1626</t>
+  </si>
+  <si>
+    <t>302, 339, 376</t>
+  </si>
+  <si>
+    <t>502, 564, 626, 688</t>
+  </si>
+  <si>
+    <t>752, 846, 940, 1034, 1128</t>
+  </si>
+  <si>
+    <t>1002, 1127, 1252, 1377, 1502, 1627</t>
+  </si>
+  <si>
+    <t>450, 506, 562</t>
+  </si>
+  <si>
+    <t>650, 731, 812, 893</t>
+  </si>
+  <si>
+    <t>900, 1012, 1124, 1236, 1348</t>
+  </si>
+  <si>
+    <t>1750, 1968, 2186, 2404, 2622, 2840</t>
+  </si>
+  <si>
+    <t>451, 507, 563</t>
+  </si>
+  <si>
+    <t>651, 732, 813, 894</t>
+  </si>
+  <si>
+    <t>901, 1013, 1125, 1237, 1349</t>
+  </si>
+  <si>
+    <t>1751, 1969, 2187, 2405, 2623, 2841</t>
+  </si>
+  <si>
+    <t>750, 843, 936</t>
+  </si>
+  <si>
+    <t>1000, 1125, 1250, 1375</t>
+  </si>
+  <si>
+    <t>1500, 1687, 1874, 2061, 2248</t>
+  </si>
+  <si>
+    <t>3500, 3937, 4374, 4811, 5248, 5685</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2121,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="E2" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="F2" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3521,7 +3521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3534,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3548,13 +3550,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3562,13 +3564,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3576,13 +3578,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3590,13 +3592,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3604,13 +3606,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,13 +3620,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,13 +3634,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,13 +3648,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,13 +3662,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3674,13 +3676,13 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3688,13 +3690,13 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3702,13 +3704,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3716,13 +3718,13 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3730,13 +3732,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3744,13 +3746,13 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3758,13 +3760,13 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3772,13 +3774,13 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3786,13 +3788,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3800,13 +3802,13 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3814,13 +3816,13 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3828,13 +3830,13 @@
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3842,13 +3844,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,13 +3858,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3870,13 +3872,13 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3884,13 +3886,13 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3898,13 +3900,13 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3912,13 +3914,13 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,13 +3928,13 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3940,13 +3942,13 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3954,13 +3956,13 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3968,13 +3970,13 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3982,13 +3984,13 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3996,13 +3998,13 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C34">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4010,13 +4012,13 @@
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -4024,13 +4026,13 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,13 +4040,13 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,13 +4054,13 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4066,13 +4068,13 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -4080,13 +4082,13 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -4094,13 +4096,13 @@
         <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C41">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -4108,13 +4110,13 @@
         <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -4122,13 +4124,13 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -4136,13 +4138,13 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -4150,13 +4152,13 @@
         <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -4164,13 +4166,13 @@
         <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -4178,13 +4180,13 @@
         <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,13 +4194,13 @@
         <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4206,13 +4208,13 @@
         <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -4220,13 +4222,13 @@
         <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -4234,13 +4236,13 @@
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -4248,13 +4250,13 @@
         <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -4262,13 +4264,13 @@
         <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -4276,13 +4278,13 @@
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,13 +4292,13 @@
         <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -4304,13 +4306,13 @@
         <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -4318,13 +4320,13 @@
         <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -4332,13 +4334,13 @@
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,13 +4348,13 @@
         <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C59">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,13 +4362,13 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4374,13 +4376,13 @@
         <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4388,13 +4390,13 @@
         <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4402,13 +4404,13 @@
         <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,13 +4418,13 @@
         <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4430,13 +4432,13 @@
         <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,13 +4446,13 @@
         <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4458,13 +4460,13 @@
         <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C67">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4472,13 +4474,13 @@
         <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4486,13 +4488,13 @@
         <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4500,13 +4502,13 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4514,13 +4516,13 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4528,13 +4530,13 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,13 +4544,13 @@
         <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4556,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C74">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4570,13 +4572,13 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -4584,13 +4586,13 @@
         <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,13 +4600,13 @@
         <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,13 +4614,13 @@
         <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -4626,13 +4628,13 @@
         <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,13 +4642,13 @@
         <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,13 +4656,13 @@
         <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C81">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,13 +4670,13 @@
         <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4682,13 +4684,13 @@
         <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -4696,13 +4698,13 @@
         <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,13 +4712,13 @@
         <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,13 +4726,13 @@
         <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -4738,13 +4740,13 @@
         <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,13 +4754,13 @@
         <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C88">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,13 +4768,13 @@
         <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4780,13 +4782,13 @@
         <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,13 +4796,13 @@
         <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C91">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4808,13 +4810,13 @@
         <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C92">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4822,13 +4824,13 @@
         <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4836,13 +4838,13 @@
         <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4850,13 +4852,13 @@
         <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C95">
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,13 +4866,13 @@
         <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,13 +4880,13 @@
         <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4892,13 +4894,13 @@
         <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C98">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4906,13 +4908,13 @@
         <v>168</v>
       </c>
       <c r="B99" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C99">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4920,13 +4922,13 @@
         <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4934,13 +4936,13 @@
         <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4948,13 +4950,13 @@
         <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4962,13 +4964,13 @@
         <v>175</v>
       </c>
       <c r="B103" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,13 +4978,13 @@
         <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4990,13 +4992,13 @@
         <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -5004,13 +5006,13 @@
         <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C106">
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,13 +5020,13 @@
         <v>179</v>
       </c>
       <c r="B107" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C107">
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -5032,13 +5034,13 @@
         <v>180</v>
       </c>
       <c r="B108" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -5046,13 +5048,13 @@
         <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -5060,13 +5062,13 @@
         <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -5074,13 +5076,13 @@
         <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -5088,13 +5090,13 @@
         <v>187</v>
       </c>
       <c r="B112" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -5102,13 +5104,13 @@
         <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C113">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -5116,13 +5118,13 @@
         <v>189</v>
       </c>
       <c r="B114" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C114">
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -5130,13 +5132,13 @@
         <v>190</v>
       </c>
       <c r="B115" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -5144,13 +5146,13 @@
         <v>194</v>
       </c>
       <c r="B116" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -5158,13 +5160,13 @@
         <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -5172,13 +5174,13 @@
         <v>196</v>
       </c>
       <c r="B118" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,13 +5188,13 @@
         <v>197</v>
       </c>
       <c r="B119" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C119">
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,13 +5202,13 @@
         <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C120">
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -5214,13 +5216,13 @@
         <v>199</v>
       </c>
       <c r="B121" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C121">
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -5228,13 +5230,13 @@
         <v>203</v>
       </c>
       <c r="B122" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -5242,13 +5244,13 @@
         <v>204</v>
       </c>
       <c r="B123" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -5256,13 +5258,13 @@
         <v>205</v>
       </c>
       <c r="B124" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C124">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -5270,13 +5272,13 @@
         <v>206</v>
       </c>
       <c r="B125" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C125">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -5284,13 +5286,13 @@
         <v>210</v>
       </c>
       <c r="B126" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -5298,13 +5300,13 @@
         <v>211</v>
       </c>
       <c r="B127" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C127">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,13 +5314,13 @@
         <v>212</v>
       </c>
       <c r="B128" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C128">
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -5326,13 +5328,13 @@
         <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C129">
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -5340,13 +5342,13 @@
         <v>217</v>
       </c>
       <c r="B130" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -5354,13 +5356,13 @@
         <v>218</v>
       </c>
       <c r="B131" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -5368,13 +5370,13 @@
         <v>219</v>
       </c>
       <c r="B132" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C132">
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -5382,13 +5384,13 @@
         <v>220</v>
       </c>
       <c r="B133" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C133">
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -5396,13 +5398,13 @@
         <v>221</v>
       </c>
       <c r="B134" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -5410,13 +5412,13 @@
         <v>225</v>
       </c>
       <c r="B135" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,13 +5426,13 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -5438,13 +5440,13 @@
         <v>227</v>
       </c>
       <c r="B137" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -5452,13 +5454,13 @@
         <v>228</v>
       </c>
       <c r="B138" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C138">
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -5466,13 +5468,13 @@
         <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C139">
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -5480,13 +5482,13 @@
         <v>230</v>
       </c>
       <c r="B140" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C140">
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -5494,13 +5496,13 @@
         <v>231</v>
       </c>
       <c r="B141" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -5508,13 +5510,13 @@
         <v>235</v>
       </c>
       <c r="B142" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -5522,13 +5524,13 @@
         <v>236</v>
       </c>
       <c r="B143" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,13 +5538,13 @@
         <v>237</v>
       </c>
       <c r="B144" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C144">
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -5550,13 +5552,13 @@
         <v>238</v>
       </c>
       <c r="B145" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C145">
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -5564,13 +5566,13 @@
         <v>239</v>
       </c>
       <c r="B146" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C146">
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -5578,13 +5580,13 @@
         <v>240</v>
       </c>
       <c r="B147" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C147">
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -5592,13 +5594,13 @@
         <v>241</v>
       </c>
       <c r="B148" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,13 +5608,13 @@
         <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -5620,13 +5622,13 @@
         <v>246</v>
       </c>
       <c r="B150" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -5634,13 +5636,13 @@
         <v>247</v>
       </c>
       <c r="B151" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C151">
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,13 +5650,13 @@
         <v>248</v>
       </c>
       <c r="B152" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -5662,13 +5664,13 @@
         <v>249</v>
       </c>
       <c r="B153" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C153">
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -5676,13 +5678,13 @@
         <v>250</v>
       </c>
       <c r="B154" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C154">
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -5690,13 +5692,13 @@
         <v>254</v>
       </c>
       <c r="B155" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -5704,13 +5706,13 @@
         <v>255</v>
       </c>
       <c r="B156" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -5718,13 +5720,13 @@
         <v>256</v>
       </c>
       <c r="B157" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C157">
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -5732,13 +5734,13 @@
         <v>257</v>
       </c>
       <c r="B158" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C158">
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -5746,13 +5748,13 @@
         <v>261</v>
       </c>
       <c r="B159" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C159">
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,13 +5762,13 @@
         <v>262</v>
       </c>
       <c r="B160" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -5774,13 +5776,13 @@
         <v>263</v>
       </c>
       <c r="B161" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C161">
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -5788,13 +5790,13 @@
         <v>264</v>
       </c>
       <c r="B162" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C162">
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -5802,13 +5804,13 @@
         <v>268</v>
       </c>
       <c r="B163" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C163">
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,13 +5818,13 @@
         <v>269</v>
       </c>
       <c r="B164" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C164">
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -5830,13 +5832,13 @@
         <v>270</v>
       </c>
       <c r="B165" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C165">
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -5844,13 +5846,13 @@
         <v>271</v>
       </c>
       <c r="B166" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C166">
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -5858,13 +5860,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,13 +5874,13 @@
         <v>276</v>
       </c>
       <c r="B168" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -5886,13 +5888,13 @@
         <v>277</v>
       </c>
       <c r="B169" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -5900,13 +5902,13 @@
         <v>278</v>
       </c>
       <c r="B170" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C170">
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -5914,13 +5916,13 @@
         <v>279</v>
       </c>
       <c r="B171" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C171">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -5928,13 +5930,13 @@
         <v>280</v>
       </c>
       <c r="B172" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C172">
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -5942,13 +5944,13 @@
         <v>281</v>
       </c>
       <c r="B173" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C173">
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5956,13 +5958,13 @@
         <v>282</v>
       </c>
       <c r="B174" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5970,13 +5972,13 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,13 +5986,13 @@
         <v>287</v>
       </c>
       <c r="B176" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C176">
         <v>2</v>
       </c>
       <c r="D176">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5998,13 +6000,13 @@
         <v>288</v>
       </c>
       <c r="B177" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C177">
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -6012,13 +6014,13 @@
         <v>289</v>
       </c>
       <c r="B178" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C178">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -6026,13 +6028,13 @@
         <v>290</v>
       </c>
       <c r="B179" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C179">
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -6040,13 +6042,13 @@
         <v>291</v>
       </c>
       <c r="B180" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C180">
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -6054,13 +6056,13 @@
         <v>292</v>
       </c>
       <c r="B181" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -6068,13 +6070,13 @@
         <v>296</v>
       </c>
       <c r="B182" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -6082,13 +6084,13 @@
         <v>297</v>
       </c>
       <c r="B183" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -6096,13 +6098,13 @@
         <v>298</v>
       </c>
       <c r="B184" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -6110,13 +6112,13 @@
         <v>299</v>
       </c>
       <c r="B185" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C185">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -6124,13 +6126,13 @@
         <v>300</v>
       </c>
       <c r="B186" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C186">
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -6138,13 +6140,13 @@
         <v>301</v>
       </c>
       <c r="B187" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C187">
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -6152,13 +6154,13 @@
         <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -6166,13 +6168,13 @@
         <v>306</v>
       </c>
       <c r="B189" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C189">
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -6180,13 +6182,13 @@
         <v>307</v>
       </c>
       <c r="B190" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C190">
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -6194,13 +6196,13 @@
         <v>308</v>
       </c>
       <c r="B191" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C191">
         <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -6208,13 +6210,13 @@
         <v>312</v>
       </c>
       <c r="B192" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C192">
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -6222,13 +6224,13 @@
         <v>313</v>
       </c>
       <c r="B193" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C193">
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -6236,13 +6238,13 @@
         <v>314</v>
       </c>
       <c r="B194" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C194">
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -6250,13 +6252,13 @@
         <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C195">
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -6264,13 +6266,13 @@
         <v>319</v>
       </c>
       <c r="B196" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C196">
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -6278,13 +6280,13 @@
         <v>320</v>
       </c>
       <c r="B197" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C197">
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -6292,13 +6294,13 @@
         <v>321</v>
       </c>
       <c r="B198" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C198">
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -6306,13 +6308,13 @@
         <v>322</v>
       </c>
       <c r="B199" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C199">
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -6320,13 +6322,13 @@
         <v>323</v>
       </c>
       <c r="B200" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -6334,13 +6336,13 @@
         <v>327</v>
       </c>
       <c r="B201" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -6348,13 +6350,13 @@
         <v>328</v>
       </c>
       <c r="B202" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -6362,13 +6364,13 @@
         <v>329</v>
       </c>
       <c r="B203" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C203">
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -6376,13 +6378,13 @@
         <v>330</v>
       </c>
       <c r="B204" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C204">
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -6390,13 +6392,13 @@
         <v>331</v>
       </c>
       <c r="B205" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C205">
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -6404,13 +6406,13 @@
         <v>332</v>
       </c>
       <c r="B206" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C206">
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -6418,13 +6420,13 @@
         <v>333</v>
       </c>
       <c r="B207" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="D207">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -6432,13 +6434,13 @@
         <v>337</v>
       </c>
       <c r="B208" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -6446,13 +6448,13 @@
         <v>338</v>
       </c>
       <c r="B209" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -6460,13 +6462,13 @@
         <v>339</v>
       </c>
       <c r="B210" t="s">
+        <v>524</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
         <v>548</v>
-      </c>
-      <c r="C210">
-        <v>3</v>
-      </c>
-      <c r="D210" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -6474,13 +6476,13 @@
         <v>340</v>
       </c>
       <c r="B211" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C211">
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -6488,13 +6490,13 @@
         <v>341</v>
       </c>
       <c r="B212" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C212">
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -6502,13 +6504,13 @@
         <v>342</v>
       </c>
       <c r="B213" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C213">
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -6516,13 +6518,13 @@
         <v>343</v>
       </c>
       <c r="B214" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -6530,13 +6532,13 @@
         <v>347</v>
       </c>
       <c r="B215" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -6544,13 +6546,13 @@
         <v>348</v>
       </c>
       <c r="B216" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
       <c r="D216">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -6558,13 +6560,13 @@
         <v>349</v>
       </c>
       <c r="B217" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C217">
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -6572,13 +6574,13 @@
         <v>350</v>
       </c>
       <c r="B218" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C218">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -6586,13 +6588,13 @@
         <v>351</v>
       </c>
       <c r="B219" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C219">
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -6600,13 +6602,13 @@
         <v>352</v>
       </c>
       <c r="B220" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C220">
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -6614,13 +6616,13 @@
         <v>356</v>
       </c>
       <c r="B221" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="C221">
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -6628,13 +6630,13 @@
         <v>357</v>
       </c>
       <c r="B222" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="C222">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -6642,13 +6644,13 @@
         <v>358</v>
       </c>
       <c r="B223" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="C223">
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -6656,13 +6658,13 @@
         <v>359</v>
       </c>
       <c r="B224" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="C224">
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -6670,13 +6672,13 @@
         <v>363</v>
       </c>
       <c r="B225" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C225">
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -6684,13 +6686,13 @@
         <v>364</v>
       </c>
       <c r="B226" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C226">
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -6698,13 +6700,13 @@
         <v>365</v>
       </c>
       <c r="B227" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C227">
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -6712,13 +6714,13 @@
         <v>366</v>
       </c>
       <c r="B228" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C228">
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -6726,13 +6728,13 @@
         <v>370</v>
       </c>
       <c r="B229" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -6740,13 +6742,13 @@
         <v>371</v>
       </c>
       <c r="B230" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C230">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -6754,13 +6756,13 @@
         <v>372</v>
       </c>
       <c r="B231" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C231">
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -6768,13 +6770,13 @@
         <v>373</v>
       </c>
       <c r="B232" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C232">
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -6782,13 +6784,13 @@
         <v>374</v>
       </c>
       <c r="B233" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -6796,13 +6798,13 @@
         <v>378</v>
       </c>
       <c r="B234" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -6810,13 +6812,13 @@
         <v>379</v>
       </c>
       <c r="B235" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -6824,13 +6826,13 @@
         <v>380</v>
       </c>
       <c r="B236" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C236">
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -6838,13 +6840,13 @@
         <v>381</v>
       </c>
       <c r="B237" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C237">
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -6852,13 +6854,13 @@
         <v>382</v>
       </c>
       <c r="B238" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C238">
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -6866,13 +6868,13 @@
         <v>383</v>
       </c>
       <c r="B239" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C239">
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -6880,13 +6882,13 @@
         <v>384</v>
       </c>
       <c r="B240" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -6894,13 +6896,13 @@
         <v>388</v>
       </c>
       <c r="B241" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -6908,13 +6910,13 @@
         <v>389</v>
       </c>
       <c r="B242" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C242">
         <v>2</v>
       </c>
       <c r="D242">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -6922,13 +6924,13 @@
         <v>390</v>
       </c>
       <c r="B243" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C243">
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6936,13 +6938,13 @@
         <v>391</v>
       </c>
       <c r="B244" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C244">
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6950,13 +6952,13 @@
         <v>392</v>
       </c>
       <c r="B245" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C245">
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6964,13 +6966,13 @@
         <v>393</v>
       </c>
       <c r="B246" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C246">
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6978,13 +6980,13 @@
         <v>394</v>
       </c>
       <c r="B247" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
       <c r="D247">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6992,13 +6994,13 @@
         <v>398</v>
       </c>
       <c r="B248" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -7006,13 +7008,13 @@
         <v>399</v>
       </c>
       <c r="B249" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -7020,13 +7022,13 @@
         <v>400</v>
       </c>
       <c r="B250" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C250">
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -7034,13 +7036,13 @@
         <v>401</v>
       </c>
       <c r="B251" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C251">
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -7048,13 +7050,13 @@
         <v>402</v>
       </c>
       <c r="B252" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C252">
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -7062,13 +7064,13 @@
         <v>403</v>
       </c>
       <c r="B253" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C253">
         <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -7076,13 +7078,13 @@
         <v>407</v>
       </c>
       <c r="B254" t="s">
+        <v>532</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254" t="s">
         <v>556</v>
-      </c>
-      <c r="C254">
-        <v>3</v>
-      </c>
-      <c r="D254" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -7090,13 +7092,13 @@
         <v>408</v>
       </c>
       <c r="B255" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="C255">
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -7104,13 +7106,13 @@
         <v>409</v>
       </c>
       <c r="B256" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="C256">
         <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -7118,13 +7120,13 @@
         <v>410</v>
       </c>
       <c r="B257" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="C257">
         <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -7132,13 +7134,13 @@
         <v>414</v>
       </c>
       <c r="B258" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C258">
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -7146,13 +7148,13 @@
         <v>415</v>
       </c>
       <c r="B259" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C259">
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -7160,13 +7162,13 @@
         <v>416</v>
       </c>
       <c r="B260" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C260">
         <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -7174,13 +7176,13 @@
         <v>417</v>
       </c>
       <c r="B261" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C261">
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -7188,13 +7190,13 @@
         <v>421</v>
       </c>
       <c r="B262" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C262">
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -7202,13 +7204,13 @@
         <v>422</v>
       </c>
       <c r="B263" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C263">
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -7216,13 +7218,13 @@
         <v>423</v>
       </c>
       <c r="B264" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C264">
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -7230,13 +7232,13 @@
         <v>424</v>
       </c>
       <c r="B265" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C265">
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -7244,13 +7246,13 @@
         <v>425</v>
       </c>
       <c r="B266" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
       <c r="D266">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -7258,13 +7260,13 @@
         <v>429</v>
       </c>
       <c r="B267" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -7272,13 +7274,13 @@
         <v>430</v>
       </c>
       <c r="B268" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C268">
         <v>2</v>
       </c>
       <c r="D268">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -7286,13 +7288,13 @@
         <v>431</v>
       </c>
       <c r="B269" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C269">
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -7300,13 +7302,13 @@
         <v>432</v>
       </c>
       <c r="B270" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C270">
         <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -7314,13 +7316,13 @@
         <v>433</v>
       </c>
       <c r="B271" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C271">
         <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -7328,13 +7330,13 @@
         <v>434</v>
       </c>
       <c r="B272" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C272">
         <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -7342,13 +7344,13 @@
         <v>435</v>
       </c>
       <c r="B273" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C273">
         <v>0</v>
       </c>
       <c r="D273">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -7356,13 +7358,13 @@
         <v>439</v>
       </c>
       <c r="B274" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -7370,13 +7372,13 @@
         <v>440</v>
       </c>
       <c r="B275" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C275">
         <v>2</v>
       </c>
       <c r="D275">
-        <v>301</v>
+        <v>101</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -7384,13 +7386,13 @@
         <v>441</v>
       </c>
       <c r="B276" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C276">
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -7398,13 +7400,13 @@
         <v>442</v>
       </c>
       <c r="B277" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C277">
         <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -7412,13 +7414,13 @@
         <v>443</v>
       </c>
       <c r="B278" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C278">
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -7426,13 +7428,13 @@
         <v>444</v>
       </c>
       <c r="B279" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C279">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -7440,13 +7442,13 @@
         <v>445</v>
       </c>
       <c r="B280" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
       <c r="D280">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -7454,13 +7456,13 @@
         <v>449</v>
       </c>
       <c r="B281" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -7468,13 +7470,13 @@
         <v>450</v>
       </c>
       <c r="B282" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C282">
         <v>2</v>
       </c>
       <c r="D282">
-        <v>302</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -7482,13 +7484,13 @@
         <v>451</v>
       </c>
       <c r="B283" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C283">
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -7496,13 +7498,13 @@
         <v>452</v>
       </c>
       <c r="B284" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C284">
         <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -7510,13 +7512,13 @@
         <v>453</v>
       </c>
       <c r="B285" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C285">
         <v>5</v>
       </c>
       <c r="D285" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -7524,13 +7526,13 @@
         <v>454</v>
       </c>
       <c r="B286" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C286">
         <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -7538,13 +7540,13 @@
         <v>458</v>
       </c>
       <c r="B287" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C287">
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -7552,13 +7554,13 @@
         <v>459</v>
       </c>
       <c r="B288" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C288">
         <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -7566,13 +7568,13 @@
         <v>460</v>
       </c>
       <c r="B289" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C289">
         <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -7580,13 +7582,13 @@
         <v>461</v>
       </c>
       <c r="B290" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C290">
         <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -7594,13 +7596,13 @@
         <v>465</v>
       </c>
       <c r="B291" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C291">
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -7608,13 +7610,13 @@
         <v>466</v>
       </c>
       <c r="B292" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C292">
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -7622,13 +7624,13 @@
         <v>467</v>
       </c>
       <c r="B293" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C293">
         <v>5</v>
       </c>
       <c r="D293" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -7636,13 +7638,13 @@
         <v>468</v>
       </c>
       <c r="B294" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C294">
         <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -7650,13 +7652,13 @@
         <v>472</v>
       </c>
       <c r="B295" t="s">
+        <v>540</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+      <c r="D295" t="s">
         <v>564</v>
-      </c>
-      <c r="C295">
-        <v>3</v>
-      </c>
-      <c r="D295" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -7664,13 +7666,13 @@
         <v>473</v>
       </c>
       <c r="B296" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C296">
         <v>4</v>
       </c>
       <c r="D296" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -7678,13 +7680,13 @@
         <v>474</v>
       </c>
       <c r="B297" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C297">
         <v>5</v>
       </c>
       <c r="D297" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -7692,13 +7694,13 @@
         <v>475</v>
       </c>
       <c r="B298" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C298">
         <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462B838-F63F-4DE8-B1EB-1BC5FFC198A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB55A0-1FEC-4450-AB77-90F602748D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -2109,7 +2109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2195,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>5.0000000000000001E-3</v>
@@ -2294,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>1E-3</v>
@@ -2525,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14">
         <v>5.0000000000000001E-3</v>
@@ -3521,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB55A0-1FEC-4450-AB77-90F602748D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AEF4D-6EB0-4038-B91F-91C03E3F1E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2203,19 +2203,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>0.5</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2">
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2">
         <v>0.15</v>
@@ -2302,19 +2302,19 @@
         <v>1E-3</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.1</v>
       </c>
       <c r="L5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5">
         <v>1E-3</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O5">
         <v>0.03</v>
@@ -2533,19 +2533,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14">
         <v>1E-3</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O14">
         <v>0.03</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AEF4D-6EB0-4038-B91F-91C03E3F1E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEA28C7-D5FC-4AA1-848B-3B9820695D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="556">
   <si>
     <t>equipId|String</t>
   </si>
@@ -1686,30 +1686,6 @@
     <t>1000, 1125, 1250, 1375, 1500, 1625</t>
   </si>
   <si>
-    <t>301, 338, 375</t>
-  </si>
-  <si>
-    <t>501, 563, 625, 687</t>
-  </si>
-  <si>
-    <t>751, 844, 937, 1030, 1123</t>
-  </si>
-  <si>
-    <t>1001, 1126, 1251, 1376, 1501, 1626</t>
-  </si>
-  <si>
-    <t>302, 339, 376</t>
-  </si>
-  <si>
-    <t>502, 564, 626, 688</t>
-  </si>
-  <si>
-    <t>752, 846, 940, 1034, 1128</t>
-  </si>
-  <si>
-    <t>1002, 1127, 1252, 1377, 1502, 1627</t>
-  </si>
-  <si>
     <t>450, 506, 562</t>
   </si>
   <si>
@@ -1720,18 +1696,6 @@
   </si>
   <si>
     <t>1750, 1968, 2186, 2404, 2622, 2840</t>
-  </si>
-  <si>
-    <t>451, 507, 563</t>
-  </si>
-  <si>
-    <t>651, 732, 813, 894</t>
-  </si>
-  <si>
-    <t>901, 1013, 1125, 1237, 1349</t>
-  </si>
-  <si>
-    <t>1751, 1969, 2187, 2405, 2623, 2841</t>
   </si>
   <si>
     <t>750, 843, 936</t>
@@ -2109,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -3523,9 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3656,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3670,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3684,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3698,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3712,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3726,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3740,7 +3702,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3754,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3768,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3782,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3796,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3810,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3824,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3838,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3852,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3866,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3880,7 +3842,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3894,7 +3856,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3908,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3922,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3936,7 +3898,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3950,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3964,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3978,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3992,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4006,7 +3968,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4118,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -4132,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -4146,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -4160,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -4174,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -4188,7 +4150,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -4202,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4216,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -4230,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -4244,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -4258,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -4272,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -4286,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4300,7 +4262,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -4314,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -4328,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -4342,7 +4304,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -4356,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4370,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4384,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4398,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4412,7 +4374,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4426,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4440,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4454,7 +4416,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4468,7 +4430,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4580,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -4594,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -4608,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4622,7 +4584,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -4636,7 +4598,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -4650,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4664,7 +4626,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4678,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4692,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -4706,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -4720,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -4734,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -4748,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4762,7 +4724,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4776,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4790,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4804,7 +4766,7 @@
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4818,7 +4780,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4832,7 +4794,7 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4846,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4860,7 +4822,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -4874,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4888,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4902,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4916,7 +4878,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4930,7 +4892,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -5042,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -5056,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -5070,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -5084,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -5098,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -5112,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -5126,7 +5088,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -5140,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -5154,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -5168,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -5182,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -5196,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -5210,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -5224,7 +5186,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -5238,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -5252,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -5266,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -5280,7 +5242,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -5294,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -5308,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -5322,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -5336,7 +5298,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -5350,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -5364,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -5378,7 +5340,7 @@
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -5392,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -5518,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -5532,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -5546,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -5560,7 +5522,7 @@
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -5574,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -5588,7 +5550,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -5602,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -5630,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -5644,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -5658,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -5672,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -5686,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -5700,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -5714,7 +5676,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,7 +5690,7 @@
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -5742,7 +5704,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -5756,7 +5718,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -5770,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -5784,7 +5746,7 @@
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -5798,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -5812,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -5826,7 +5788,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -5840,7 +5802,7 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -5854,7 +5816,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -5966,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5980,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -5994,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D176">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -6008,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -6022,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -6036,7 +5998,7 @@
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -6050,7 +6012,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -6064,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -6078,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -6092,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="D183">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -6106,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -6120,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -6134,7 +6096,7 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -6148,7 +6110,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -6162,7 +6124,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -6176,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -6190,7 +6152,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -6204,7 +6166,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -6218,7 +6180,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -6232,7 +6194,7 @@
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -6246,7 +6208,7 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -6260,7 +6222,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -6274,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -6288,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -6302,7 +6264,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -6316,7 +6278,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -6428,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -6442,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -6456,7 +6418,7 @@
         <v>2</v>
       </c>
       <c r="D209">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -6470,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -6484,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -6498,7 +6460,7 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -6512,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -6526,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -6540,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -6554,7 +6516,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -6568,7 +6530,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -6582,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -6596,7 +6558,7 @@
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -6610,7 +6572,7 @@
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -6624,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -6638,7 +6600,7 @@
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -6652,7 +6614,7 @@
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -6666,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -6680,7 +6642,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -6694,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -6708,7 +6670,7 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -6722,7 +6684,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -6736,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -6750,7 +6712,7 @@
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -6764,7 +6726,7 @@
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -6778,7 +6740,7 @@
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -6890,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -6904,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -6918,7 +6880,7 @@
         <v>2</v>
       </c>
       <c r="D242">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -6932,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6946,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6960,7 +6922,7 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6974,7 +6936,7 @@
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6988,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -7002,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -7016,7 +6978,7 @@
         <v>2</v>
       </c>
       <c r="D249">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -7030,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -7044,7 +7006,7 @@
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -7058,7 +7020,7 @@
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -7072,7 +7034,7 @@
         <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -7086,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -7100,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -7114,7 +7076,7 @@
         <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -7128,7 +7090,7 @@
         <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -7142,7 +7104,7 @@
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -7156,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -7170,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -7184,7 +7146,7 @@
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -7198,7 +7160,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -7212,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -7226,7 +7188,7 @@
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -7240,7 +7202,7 @@
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -7352,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -7366,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -7380,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -7394,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -7408,7 +7370,7 @@
         <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -7422,7 +7384,7 @@
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -7436,7 +7398,7 @@
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -7450,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -7464,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -7478,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="D282">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -7492,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -7506,7 +7468,7 @@
         <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -7520,7 +7482,7 @@
         <v>5</v>
       </c>
       <c r="D285" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -7534,7 +7496,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -7548,7 +7510,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -7562,7 +7524,7 @@
         <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -7576,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -7590,7 +7552,7 @@
         <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -7604,7 +7566,7 @@
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -7618,7 +7580,7 @@
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -7632,7 +7594,7 @@
         <v>5</v>
       </c>
       <c r="D293" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -7646,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -7660,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -7674,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="D296" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -7688,7 +7650,7 @@
         <v>5</v>
       </c>
       <c r="D297" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -7702,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEA28C7-D5FC-4AA1-848B-3B9820695D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D32ECB-1ECA-4730-997B-0889F30C64A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2161,28 +2161,28 @@
         <v>1</v>
       </c>
       <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0.05</v>
+      </c>
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="I2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
+        <v>0.03</v>
+      </c>
+      <c r="L2">
         <v>13</v>
       </c>
-      <c r="K2">
-        <v>0.5</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O2">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
@@ -2213,6 +2213,30 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>0.01</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2236,6 +2260,30 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <v>17</v>
+      </c>
+      <c r="M4">
+        <v>0.05</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2260,28 +2308,28 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K5">
+        <v>0.05</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5">
         <v>0.1</v>
-      </c>
-      <c r="L5">
-        <v>21</v>
-      </c>
-      <c r="M5">
-        <v>1E-3</v>
-      </c>
-      <c r="N5">
-        <v>22</v>
-      </c>
-      <c r="O5">
-        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,6 +2354,30 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>0.02</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>0.22500000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2329,6 +2401,30 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>0.02</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>0.05</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2352,6 +2448,30 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0.01</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>0.01</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2375,6 +2495,30 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>0.03</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>0.1</v>
+      </c>
+      <c r="N9">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2398,6 +2542,30 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0.01</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2421,6 +2589,30 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>0.15</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>0.05</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2444,6 +2636,30 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0.15</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>0.05</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2467,6 +2683,30 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>0.2</v>
+      </c>
+      <c r="N13">
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2491,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>0.01</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>0.05</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>0.01</v>
+      </c>
+      <c r="N14">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J14">
-        <v>13</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14">
-        <v>21</v>
-      </c>
-      <c r="M14">
-        <v>1E-3</v>
-      </c>
-      <c r="N14">
-        <v>22</v>
-      </c>
       <c r="O14">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="P14" t="s">
         <v>127</v>
@@ -2543,6 +2783,30 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>0.05</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>0.05</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2566,6 +2830,30 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>0.01</v>
+      </c>
+      <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>0.05</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2589,6 +2877,30 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>0.06</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2612,6 +2924,30 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>0.06</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>0.02</v>
+      </c>
+      <c r="N18">
+        <v>23</v>
+      </c>
+      <c r="O18">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2635,6 +2971,30 @@
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>0.02</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>0.2</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2658,6 +3018,30 @@
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>0.01</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>0.01</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>0.05</v>
+      </c>
+      <c r="N20">
+        <v>23</v>
+      </c>
+      <c r="O20">
+        <v>0.02</v>
+      </c>
       <c r="P20" t="s">
         <v>484</v>
       </c>
@@ -2687,6 +3071,30 @@
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>0.05</v>
+      </c>
+      <c r="L21">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>0.02</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2710,6 +3118,30 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>0.03</v>
+      </c>
+      <c r="J22">
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>0.02</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>0.01</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+      <c r="O22">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2733,6 +3165,30 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <v>0.2</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2756,6 +3212,30 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>0.05</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N24">
+        <v>17</v>
+      </c>
+      <c r="O24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2779,6 +3259,30 @@
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>0.02</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>0.03</v>
+      </c>
+      <c r="N25">
+        <v>22</v>
+      </c>
+      <c r="O25">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2802,6 +3306,30 @@
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>0.03</v>
+      </c>
+      <c r="J26">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>0.01</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>0.1</v>
+      </c>
       <c r="P26" t="s">
         <v>485</v>
       </c>
@@ -2831,6 +3359,30 @@
       <c r="G27">
         <v>1</v>
       </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+      <c r="L27">
+        <v>17</v>
+      </c>
+      <c r="M27">
+        <v>0.1</v>
+      </c>
+      <c r="N27">
+        <v>20</v>
+      </c>
+      <c r="O27">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2854,6 +3406,30 @@
       <c r="G28">
         <v>1</v>
       </c>
+      <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>0.1</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <v>0.03</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>0.05</v>
+      </c>
+      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2877,6 +3453,30 @@
       <c r="G29">
         <v>1</v>
       </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>0.15</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>0.05</v>
+      </c>
+      <c r="N29">
+        <v>23</v>
+      </c>
+      <c r="O29">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2900,6 +3500,30 @@
       <c r="G30">
         <v>1</v>
       </c>
+      <c r="H30">
+        <v>17</v>
+      </c>
+      <c r="I30">
+        <v>0.15</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>0.2</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>21</v>
+      </c>
+      <c r="O30">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2923,6 +3547,30 @@
       <c r="G31">
         <v>1</v>
       </c>
+      <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>0.2</v>
+      </c>
+      <c r="J31">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>0.2</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>0.02</v>
+      </c>
+      <c r="N31">
+        <v>22</v>
+      </c>
+      <c r="O31">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2946,8 +3594,32 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>0.03</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>0.05</v>
+      </c>
+      <c r="L32">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>0.01</v>
+      </c>
+      <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>518</v>
       </c>
@@ -2969,8 +3641,32 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <v>0.01</v>
+      </c>
+      <c r="J33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>0.01</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>0.01</v>
+      </c>
+      <c r="N33">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>519</v>
       </c>
@@ -2992,8 +3688,32 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>0.05</v>
+      </c>
+      <c r="J34">
+        <v>17</v>
+      </c>
+      <c r="K34">
+        <v>0.05</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
+      <c r="M34">
+        <v>0.03</v>
+      </c>
+      <c r="N34">
+        <v>23</v>
+      </c>
+      <c r="O34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>520</v>
       </c>
@@ -3015,8 +3735,32 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <v>21</v>
+      </c>
+      <c r="K35">
+        <v>0.02</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>521</v>
       </c>
@@ -3038,8 +3782,32 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <v>24</v>
+      </c>
+      <c r="K36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>0.02</v>
+      </c>
+      <c r="N36">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>522</v>
       </c>
@@ -3061,8 +3829,32 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>0.2</v>
+      </c>
+      <c r="J37">
+        <v>21</v>
+      </c>
+      <c r="K37">
+        <v>0.02</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>0.03</v>
+      </c>
+      <c r="N37">
+        <v>23</v>
+      </c>
+      <c r="O37">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>523</v>
       </c>
@@ -3084,8 +3876,32 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <v>0.01</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>0.01</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>0.2</v>
+      </c>
+      <c r="N38">
+        <v>23</v>
+      </c>
+      <c r="O38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>524</v>
       </c>
@@ -3107,8 +3923,32 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>0.03</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>0.05</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>0.05</v>
+      </c>
+      <c r="N39">
+        <v>13</v>
+      </c>
+      <c r="O39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>525</v>
       </c>
@@ -3130,8 +3970,32 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>0.05</v>
+      </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <v>0.2</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>0.01</v>
+      </c>
+      <c r="N40">
+        <v>12</v>
+      </c>
+      <c r="O40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>526</v>
       </c>
@@ -3153,8 +4017,32 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>24</v>
+      </c>
+      <c r="I41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J41">
+        <v>21</v>
+      </c>
+      <c r="K41">
+        <v>0.02</v>
+      </c>
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="N41">
+        <v>15</v>
+      </c>
+      <c r="O41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>527</v>
       </c>
@@ -3176,8 +4064,32 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>0.1</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>0.01</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -3199,8 +4111,32 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43">
+        <v>0.05</v>
+      </c>
+      <c r="J43">
+        <v>17</v>
+      </c>
+      <c r="K43">
+        <v>0.1</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>0.25</v>
+      </c>
+      <c r="N43">
+        <v>21</v>
+      </c>
+      <c r="O43">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>529</v>
       </c>
@@ -3222,8 +4158,32 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>17</v>
+      </c>
+      <c r="I44">
+        <v>0.05</v>
+      </c>
+      <c r="J44">
+        <v>24</v>
+      </c>
+      <c r="K44">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>0.05</v>
+      </c>
+      <c r="N44">
+        <v>13</v>
+      </c>
+      <c r="O44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>530</v>
       </c>
@@ -3245,8 +4205,32 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>24</v>
+      </c>
+      <c r="I45">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>0.03</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>0.05</v>
+      </c>
+      <c r="N45">
+        <v>23</v>
+      </c>
+      <c r="O45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -3268,8 +4252,32 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>0.05</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>0.01</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N46">
+        <v>12</v>
+      </c>
+      <c r="O46">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>532</v>
       </c>
@@ -3291,8 +4299,32 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <v>0.05</v>
+      </c>
+      <c r="J47">
+        <v>15</v>
+      </c>
+      <c r="K47">
+        <v>0.1</v>
+      </c>
+      <c r="L47">
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>0.02</v>
+      </c>
+      <c r="N47">
+        <v>21</v>
+      </c>
+      <c r="O47">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -3314,8 +4346,32 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>24</v>
+      </c>
+      <c r="I48">
+        <v>0.02</v>
+      </c>
+      <c r="J48">
+        <v>17</v>
+      </c>
+      <c r="K48">
+        <v>0.1</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
+      <c r="M48">
+        <v>0.05</v>
+      </c>
+      <c r="N48">
+        <v>23</v>
+      </c>
+      <c r="O48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>534</v>
       </c>
@@ -3337,8 +4393,32 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>0.1</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="K49">
+        <v>0.03</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>0.02</v>
+      </c>
+      <c r="N49">
+        <v>17</v>
+      </c>
+      <c r="O49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>535</v>
       </c>
@@ -3360,8 +4440,32 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>19</v>
+      </c>
+      <c r="I50">
+        <v>0.01</v>
+      </c>
+      <c r="J50">
+        <v>13</v>
+      </c>
+      <c r="K50">
+        <v>0.1</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>0.05</v>
+      </c>
+      <c r="N50">
+        <v>23</v>
+      </c>
+      <c r="O50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>536</v>
       </c>
@@ -3383,8 +4487,32 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <v>0.05</v>
+      </c>
+      <c r="J51">
+        <v>24</v>
+      </c>
+      <c r="K51">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L51">
+        <v>12</v>
+      </c>
+      <c r="M51">
+        <v>0.03</v>
+      </c>
+      <c r="N51">
+        <v>20</v>
+      </c>
+      <c r="O51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>537</v>
       </c>
@@ -3406,8 +4534,32 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>0.05</v>
+      </c>
+      <c r="J52">
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <v>0.03</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>0.01</v>
+      </c>
+      <c r="N52">
+        <v>24</v>
+      </c>
+      <c r="O52">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>538</v>
       </c>
@@ -3429,8 +4581,32 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>17</v>
+      </c>
+      <c r="I53">
+        <v>0.1</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>0.05</v>
+      </c>
+      <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N53">
+        <v>22</v>
+      </c>
+      <c r="O53">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>539</v>
       </c>
@@ -3452,8 +4628,32 @@
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>0.02</v>
+      </c>
+      <c r="J54">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>0.02</v>
+      </c>
+      <c r="N54">
+        <v>15</v>
+      </c>
+      <c r="O54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>540</v>
       </c>
@@ -3474,6 +4674,30 @@
       </c>
       <c r="G55">
         <v>1</v>
+      </c>
+      <c r="H55">
+        <v>21</v>
+      </c>
+      <c r="I55">
+        <v>0.03</v>
+      </c>
+      <c r="J55">
+        <v>23</v>
+      </c>
+      <c r="K55">
+        <v>0.02</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>0.2</v>
+      </c>
+      <c r="N55">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +4711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D32ECB-1ECA-4730-997B-0889F30C64A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279E9AB-18CE-4898-B3F4-87E0592893A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3154,13 +3154,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3172,22 +3172,22 @@
         <v>0.1</v>
       </c>
       <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>0.02</v>
+      </c>
+      <c r="L23">
         <v>13</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.2</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>23</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N23">
-        <v>21</v>
-      </c>
-      <c r="O23">
-        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279E9AB-18CE-4898-B3F4-87E0592893A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF7908F-DC25-4066-8121-6B898AEAD83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -1674,40 +1674,40 @@
     <t>EquipName_FairyAxe</t>
   </si>
   <si>
-    <t>300, 337, 374</t>
-  </si>
-  <si>
-    <t>500, 562, 624, 686</t>
-  </si>
-  <si>
-    <t>750, 843, 936, 1029, 1122</t>
-  </si>
-  <si>
     <t>1000, 1125, 1250, 1375, 1500, 1625</t>
   </si>
   <si>
-    <t>450, 506, 562</t>
-  </si>
-  <si>
-    <t>650, 731, 812, 893</t>
-  </si>
-  <si>
-    <t>900, 1012, 1124, 1236, 1348</t>
-  </si>
-  <si>
-    <t>1750, 1968, 2186, 2404, 2622, 2840</t>
-  </si>
-  <si>
-    <t>750, 843, 936</t>
-  </si>
-  <si>
-    <t>1000, 1125, 1250, 1375</t>
-  </si>
-  <si>
-    <t>1500, 1687, 1874, 2061, 2248</t>
-  </si>
-  <si>
     <t>3500, 3937, 4374, 4811, 5248, 5685</t>
+  </si>
+  <si>
+    <t>150, 168, 186</t>
+  </si>
+  <si>
+    <t>300, 337, 374, 411</t>
+  </si>
+  <si>
+    <t>580, 652, 724, 796, 868</t>
+  </si>
+  <si>
+    <t>255, 286, 317</t>
+  </si>
+  <si>
+    <t>510, 573, 636, 699</t>
+  </si>
+  <si>
+    <t>985, 1108, 1231, 1354, 1477</t>
+  </si>
+  <si>
+    <t>1700, 1912, 2124, 2336, 2548, 2760</t>
+  </si>
+  <si>
+    <t>525, 590, 655</t>
+  </si>
+  <si>
+    <t>1050, 1181, 1312, 1443</t>
+  </si>
+  <si>
+    <t>2030, 2283, 2536, 2789, 3042</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4711,7 +4711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4772,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4786,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4814,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4828,7 +4828,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4870,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4898,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4912,7 +4912,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4968,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4996,7 +4996,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5010,7 +5010,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5024,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5038,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5052,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5066,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5080,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5108,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5122,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,7 +5136,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5150,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5164,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5178,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5192,7 +5192,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5234,7 +5234,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5248,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5262,7 +5262,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5276,7 +5276,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5290,7 +5290,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5332,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -5346,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5374,7 +5374,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5388,7 +5388,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5430,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5444,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,7 +5472,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5486,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5500,7 +5500,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5514,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5528,7 +5528,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5542,7 +5542,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5556,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5570,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -5598,7 +5598,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -5612,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -5626,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -5654,7 +5654,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,7 +5696,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -5710,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -5724,7 +5724,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -5738,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -5752,7 +5752,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5794,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -5822,7 +5822,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -5836,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -5850,7 +5850,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -5892,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -5906,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,7 +5920,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -5934,7 +5934,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -5948,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -5962,7 +5962,7 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -5976,7 +5976,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -6004,7 +6004,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -6018,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -6046,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -6060,7 +6060,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -6074,7 +6074,7 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -6088,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -6102,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -6158,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -6186,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -6200,7 +6200,7 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -6214,7 +6214,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -6256,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -6270,7 +6270,7 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -6284,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -6298,7 +6298,7 @@
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -6312,7 +6312,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -6354,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -6368,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -6382,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -6396,7 +6396,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -6410,7 +6410,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -6424,7 +6424,7 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -6438,7 +6438,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -6452,7 +6452,7 @@
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -6466,7 +6466,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -6494,7 +6494,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -6508,7 +6508,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -6522,7 +6522,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -6536,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -6550,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -6564,7 +6564,7 @@
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -6578,7 +6578,7 @@
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -6620,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="D136">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -6634,7 +6634,7 @@
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -6648,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -6662,7 +6662,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -6676,7 +6676,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -6718,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -6732,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -6746,7 +6746,7 @@
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -6760,7 +6760,7 @@
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -6774,7 +6774,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -6816,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -6830,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -6844,7 +6844,7 @@
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -6858,7 +6858,7 @@
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -6872,7 +6872,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -6886,7 +6886,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -6900,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -6914,7 +6914,7 @@
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -6942,7 +6942,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -6956,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -6970,7 +6970,7 @@
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -6984,7 +6984,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -6998,7 +6998,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -7012,7 +7012,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -7026,7 +7026,7 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -7040,7 +7040,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -7082,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -7096,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -7110,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -7124,7 +7124,7 @@
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -7138,7 +7138,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -7180,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="D176">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -7194,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -7208,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -7222,7 +7222,7 @@
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -7236,7 +7236,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -7278,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="D183">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -7292,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -7306,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -7320,7 +7320,7 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -7334,7 +7334,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -7348,7 +7348,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -7362,7 +7362,7 @@
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,7 +7376,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -7390,7 +7390,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -7404,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -7418,7 +7418,7 @@
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -7432,7 +7432,7 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -7446,7 +7446,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -7460,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -7474,7 +7474,7 @@
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -7488,7 +7488,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -7502,7 +7502,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -7544,7 +7544,7 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -7558,7 +7558,7 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -7572,7 +7572,7 @@
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -7586,7 +7586,7 @@
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -7600,7 +7600,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -7642,7 +7642,7 @@
         <v>2</v>
       </c>
       <c r="D209">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -7656,7 +7656,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -7670,7 +7670,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -7684,7 +7684,7 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -7698,7 +7698,7 @@
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -7740,7 +7740,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -7768,7 +7768,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -7782,7 +7782,7 @@
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -7796,7 +7796,7 @@
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -7810,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -7824,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -7838,7 +7838,7 @@
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -7852,7 +7852,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -7866,7 +7866,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -7880,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -7894,7 +7894,7 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -7908,7 +7908,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -7922,7 +7922,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -7936,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -7950,7 +7950,7 @@
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -7964,7 +7964,7 @@
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -8006,7 +8006,7 @@
         <v>2</v>
       </c>
       <c r="D235">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -8020,7 +8020,7 @@
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -8034,7 +8034,7 @@
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -8048,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -8062,7 +8062,7 @@
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -8104,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="D242">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -8118,7 +8118,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -8132,7 +8132,7 @@
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -8146,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -8160,7 +8160,7 @@
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -8202,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="D249">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -8216,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -8230,7 +8230,7 @@
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -8244,7 +8244,7 @@
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -8258,7 +8258,7 @@
         <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -8272,7 +8272,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -8286,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -8300,7 +8300,7 @@
         <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -8314,7 +8314,7 @@
         <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -8342,7 +8342,7 @@
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -8356,7 +8356,7 @@
         <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -8370,7 +8370,7 @@
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -8384,7 +8384,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -8398,7 +8398,7 @@
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -8412,7 +8412,7 @@
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -8426,7 +8426,7 @@
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -8468,7 +8468,7 @@
         <v>2</v>
       </c>
       <c r="D268">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -8482,7 +8482,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -8496,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -8510,7 +8510,7 @@
         <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -8524,7 +8524,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -8566,7 +8566,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -8580,7 +8580,7 @@
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -8594,7 +8594,7 @@
         <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -8608,7 +8608,7 @@
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -8622,7 +8622,7 @@
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -8664,7 +8664,7 @@
         <v>2</v>
       </c>
       <c r="D282">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -8678,7 +8678,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -8692,7 +8692,7 @@
         <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -8706,7 +8706,7 @@
         <v>5</v>
       </c>
       <c r="D285" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -8720,7 +8720,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -8734,7 +8734,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -8748,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -8762,7 +8762,7 @@
         <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -8776,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -8790,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -8804,7 +8804,7 @@
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -8818,7 +8818,7 @@
         <v>5</v>
       </c>
       <c r="D293" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -8832,7 +8832,7 @@
         <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -8846,7 +8846,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -8860,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="D296" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -8874,7 +8874,7 @@
         <v>5</v>
       </c>
       <c r="D297" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -8888,7 +8888,7 @@
         <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF7908F-DC25-4066-8121-6B898AEAD83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881E26A7-8F71-41A8-8AF7-E24B2351691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -2073,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2184,12 +2184,6 @@
       <c r="O2">
         <v>0.01</v>
       </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2707,6 +2701,12 @@
       <c r="O13">
         <v>0.02</v>
       </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2754,12 +2754,6 @@
       <c r="O14">
         <v>0.05</v>
       </c>
-      <c r="P14" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2995,6 +2989,12 @@
       <c r="O19">
         <v>0.1</v>
       </c>
+      <c r="P19" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3042,12 +3042,6 @@
       <c r="O20">
         <v>0.02</v>
       </c>
-      <c r="P20" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -3330,12 +3324,6 @@
       <c r="O26">
         <v>0.1</v>
       </c>
-      <c r="P26" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3619,7 +3607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>518</v>
       </c>
@@ -3666,7 +3654,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>519</v>
       </c>
@@ -3713,7 +3701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>520</v>
       </c>
@@ -3760,7 +3748,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>521</v>
       </c>
@@ -3807,7 +3795,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>522</v>
       </c>
@@ -3854,7 +3842,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>523</v>
       </c>
@@ -3901,7 +3889,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>524</v>
       </c>
@@ -3948,7 +3936,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>525</v>
       </c>
@@ -3995,7 +3983,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>526</v>
       </c>
@@ -4042,7 +4030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>527</v>
       </c>
@@ -4089,7 +4077,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -4135,8 +4123,14 @@
       <c r="O43">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>529</v>
       </c>
@@ -4183,7 +4177,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>530</v>
       </c>
@@ -4230,7 +4224,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>531</v>
       </c>
@@ -4277,7 +4271,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>532</v>
       </c>
@@ -4324,7 +4318,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>533</v>
       </c>
@@ -4371,7 +4365,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>534</v>
       </c>
@@ -4417,8 +4411,14 @@
       <c r="O49">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>535</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>536</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>537</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>538</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>539</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>540</v>
       </c>
@@ -4711,7 +4711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881E26A7-8F71-41A8-8AF7-E24B2351691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271F8D0-8A0C-4A52-A204-E36EB2001F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -3160,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>0.02</v>
+      </c>
+      <c r="J23">
         <v>15</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.1</v>
-      </c>
-      <c r="J23">
-        <v>21</v>
-      </c>
-      <c r="K23">
-        <v>0.02</v>
       </c>
       <c r="L23">
         <v>13</v>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271F8D0-8A0C-4A52-A204-E36EB2001F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AFF8E-80C1-4A1D-9213-68CA821FCE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -1674,40 +1674,40 @@
     <t>EquipName_FairyAxe</t>
   </si>
   <si>
-    <t>1000, 1125, 1250, 1375, 1500, 1625</t>
-  </si>
-  <si>
-    <t>3500, 3937, 4374, 4811, 5248, 5685</t>
-  </si>
-  <si>
-    <t>150, 168, 186</t>
-  </si>
-  <si>
-    <t>300, 337, 374, 411</t>
-  </si>
-  <si>
-    <t>580, 652, 724, 796, 868</t>
-  </si>
-  <si>
-    <t>255, 286, 317</t>
-  </si>
-  <si>
-    <t>510, 573, 636, 699</t>
-  </si>
-  <si>
-    <t>985, 1108, 1231, 1354, 1477</t>
-  </si>
-  <si>
-    <t>1700, 1912, 2124, 2336, 2548, 2760</t>
-  </si>
-  <si>
-    <t>525, 590, 655</t>
-  </si>
-  <si>
-    <t>1050, 1181, 1312, 1443</t>
-  </si>
-  <si>
-    <t>2030, 2283, 2536, 2789, 3042</t>
+    <t>190, 255, 320</t>
+  </si>
+  <si>
+    <t>450, 537, 624, 711</t>
+  </si>
+  <si>
+    <t>885, 985, 1085, 1185, 1285</t>
+  </si>
+  <si>
+    <t>1490, 1673, 1856, 2039, 2222, 2405</t>
+  </si>
+  <si>
+    <t>520, 642, 764</t>
+  </si>
+  <si>
+    <t>1010, 1146, 1282, 1418</t>
+  </si>
+  <si>
+    <t>1690, 1843, 1996, 2149, 2302</t>
+  </si>
+  <si>
+    <t>2610, 2865, 3120, 3375, 3630, 3885</t>
+  </si>
+  <si>
+    <t>1190, 1372, 1554</t>
+  </si>
+  <si>
+    <t>1920, 2132, 2344, 2556</t>
+  </si>
+  <si>
+    <t>2980, 3208, 3436, 3664, 3892</t>
+  </si>
+  <si>
+    <t>4350, 4709, 5068, 5427, 5786, 6145</t>
   </si>
 </sst>
 </file>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4711,7 +4711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4772,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4786,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,7 +4802,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4814,7 +4816,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4828,7 +4830,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4870,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4884,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4898,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4912,7 +4914,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4926,7 +4928,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4968,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4982,7 +4984,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4996,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5010,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5024,7 +5026,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5038,7 +5040,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5052,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5066,7 +5068,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5080,7 +5082,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5094,7 +5096,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5108,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5122,7 +5124,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,7 +5138,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5150,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5164,7 +5166,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5178,7 +5180,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5192,7 +5194,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5234,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5248,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5262,7 +5264,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5276,7 +5278,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5290,7 +5292,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5332,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -5346,7 +5348,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,7 +5362,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5374,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5388,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5430,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5444,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5458,7 +5460,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,7 +5474,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5486,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5500,7 +5502,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5514,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5528,7 +5530,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5542,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5556,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5570,7 +5572,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,7 +5586,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -5598,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -5612,7 +5614,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -5626,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -5654,7 +5656,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,7 +5698,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -5710,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -5724,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -5738,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -5752,7 +5754,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5794,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -5822,7 +5824,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -5836,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -5850,7 +5852,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -5892,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -5906,7 +5908,7 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -5934,7 +5936,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -5948,7 +5950,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -5962,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -5976,7 +5978,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -5990,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -6004,7 +6006,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -6018,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -6046,7 +6048,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -6060,7 +6062,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -6074,7 +6076,7 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -6088,7 +6090,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -6102,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -6158,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -6186,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -6200,7 +6202,7 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -6214,7 +6216,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -6256,7 +6258,7 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -6270,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -6284,7 +6286,7 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -6298,7 +6300,7 @@
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -6312,7 +6314,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -6354,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -6368,7 +6370,7 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -6382,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -6396,7 +6398,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -6410,7 +6412,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -6424,7 +6426,7 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -6438,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -6452,7 +6454,7 @@
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -6466,7 +6468,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -6480,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="D126" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -6494,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -6508,7 +6510,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -6522,7 +6524,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -6536,7 +6538,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -6550,7 +6552,7 @@
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -6564,7 +6566,7 @@
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -6578,7 +6580,7 @@
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -6620,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="D136">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -6634,7 +6636,7 @@
         <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -6648,7 +6650,7 @@
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -6662,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -6676,7 +6678,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -6718,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -6732,7 +6734,7 @@
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -6746,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -6760,7 +6762,7 @@
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -6774,7 +6776,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -6816,7 +6818,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -6830,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -6844,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -6858,7 +6860,7 @@
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -6872,7 +6874,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -6886,7 +6888,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -6900,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -6914,7 +6916,7 @@
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -6928,7 +6930,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -6942,7 +6944,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -6956,7 +6958,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -6970,7 +6972,7 @@
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -6984,7 +6986,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -6998,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -7012,7 +7014,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -7026,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -7040,7 +7042,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -7082,7 +7084,7 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -7096,7 +7098,7 @@
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -7110,7 +7112,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -7124,7 +7126,7 @@
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -7138,7 +7140,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -7180,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="D176">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -7194,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -7208,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -7222,7 +7224,7 @@
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -7236,7 +7238,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -7278,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="D183">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -7292,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -7306,7 +7308,7 @@
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -7320,7 +7322,7 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -7334,7 +7336,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -7348,7 +7350,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -7362,7 +7364,7 @@
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,7 +7378,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -7390,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -7404,7 +7406,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -7418,7 +7420,7 @@
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -7432,7 +7434,7 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -7446,7 +7448,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -7460,7 +7462,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -7474,7 +7476,7 @@
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -7488,7 +7490,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -7502,7 +7504,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -7544,7 +7546,7 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -7558,7 +7560,7 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -7572,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -7586,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -7600,7 +7602,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -7642,7 +7644,7 @@
         <v>2</v>
       </c>
       <c r="D209">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -7656,7 +7658,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -7670,7 +7672,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -7684,7 +7686,7 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -7698,7 +7700,7 @@
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -7740,7 +7742,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -7754,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -7768,7 +7770,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -7782,7 +7784,7 @@
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -7796,7 +7798,7 @@
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -7810,7 +7812,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -7824,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -7838,7 +7840,7 @@
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -7852,7 +7854,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -7866,7 +7868,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -7880,7 +7882,7 @@
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -7894,7 +7896,7 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -7908,7 +7910,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -7922,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -7936,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -7950,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -7964,7 +7966,7 @@
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -8006,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="D235">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -8020,7 +8022,7 @@
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -8034,7 +8036,7 @@
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -8048,7 +8050,7 @@
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -8062,7 +8064,7 @@
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -8104,7 +8106,7 @@
         <v>2</v>
       </c>
       <c r="D242">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -8118,7 +8120,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -8132,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -8146,7 +8148,7 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -8160,7 +8162,7 @@
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -8202,7 +8204,7 @@
         <v>2</v>
       </c>
       <c r="D249">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -8216,7 +8218,7 @@
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -8230,7 +8232,7 @@
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -8244,7 +8246,7 @@
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -8258,7 +8260,7 @@
         <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -8272,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -8286,7 +8288,7 @@
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -8300,7 +8302,7 @@
         <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -8314,7 +8316,7 @@
         <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -8328,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -8342,7 +8344,7 @@
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -8356,7 +8358,7 @@
         <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -8370,7 +8372,7 @@
         <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -8384,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -8398,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -8412,7 +8414,7 @@
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -8426,7 +8428,7 @@
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -8468,7 +8470,7 @@
         <v>2</v>
       </c>
       <c r="D268">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -8482,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -8496,7 +8498,7 @@
         <v>4</v>
       </c>
       <c r="D270" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -8510,7 +8512,7 @@
         <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -8524,7 +8526,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -8566,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -8580,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -8594,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="D277" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -8608,7 +8610,7 @@
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -8622,7 +8624,7 @@
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -8664,7 +8666,7 @@
         <v>2</v>
       </c>
       <c r="D282">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -8678,7 +8680,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -8692,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -8706,7 +8708,7 @@
         <v>5</v>
       </c>
       <c r="D285" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -8720,7 +8722,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -8734,7 +8736,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -8748,7 +8750,7 @@
         <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -8762,7 +8764,7 @@
         <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -8776,7 +8778,7 @@
         <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -8790,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -8804,7 +8806,7 @@
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -8818,7 +8820,7 @@
         <v>5</v>
       </c>
       <c r="D293" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -8832,7 +8834,7 @@
         <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -8846,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -8860,7 +8862,7 @@
         <v>4</v>
       </c>
       <c r="D296" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -8874,7 +8876,7 @@
         <v>5</v>
       </c>
       <c r="D297" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -8888,7 +8890,7 @@
         <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Equip.xlsx
+++ b/Excel/Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AFF8E-80C1-4A1D-9213-68CA821FCE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E357DDD-A1E9-4D7B-B878-20980FF3A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AD6CC1-6F3F-4D8A-AC3F-9FCAD713EB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="557">
   <si>
     <t>equipId|String</t>
   </si>
@@ -1708,6 +1708,9 @@
   </si>
   <si>
     <t>4350, 4709, 5068, 5427, 5786, 6145</t>
+  </si>
+  <si>
+    <t>Weapon0005</t>
   </si>
 </sst>
 </file>
@@ -2073,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16696D60-66F4-4FA8-AEE9-CED2495B0571}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3794,6 +3797,12 @@
       <c r="O36">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="P36" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -4711,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4276C4CE-02DD-4971-96D1-E4ED77EB09EC}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
